--- a/SubRES_TMPL/SubRES_R_Probables.xlsx
+++ b/SubRES_TMPL/SubRES_R_Probables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D660B58D-0DA2-44A0-9835-86AD79449A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499EDE16-DC06-49AC-915E-896C994C9FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FC596A1D-735D-47D8-8E25-30449B5B17D4}"/>
   </bookViews>
@@ -24,6 +24,7 @@
     <externalReference r:id="rId7"/>
   </externalReferences>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Posibles!$I$59:$V$59</definedName>
     <definedName name="ADDITIVE">[1]Definitions!$C$35</definedName>
     <definedName name="AGRICULT">[1]Definitions!$C$167</definedName>
     <definedName name="ANTCOAL">[1]Definitions!$C$13</definedName>
@@ -462,7 +463,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="185">
   <si>
     <t>Reportes de ECP</t>
   </si>
@@ -1028,6 +1029,24 @@
   <si>
     <t>Year</t>
   </si>
+  <si>
+    <t>Table Name:</t>
+  </si>
+  <si>
+    <t>Unsaved_12815</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>reservas_aumentoprod</t>
+  </si>
+  <si>
+    <t>colectores_sin_50</t>
+  </si>
 </sst>
 </file>
 
@@ -1580,7 +1599,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1780,6 +1799,9 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="30" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -25833,16 +25855,16 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="J3" s="108" t="s">
+      <c r="J3" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="109"/>
-      <c r="L3" s="110"/>
-      <c r="M3" s="108" t="s">
+      <c r="K3" s="110"/>
+      <c r="L3" s="111"/>
+      <c r="M3" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="109"/>
-      <c r="O3" s="110"/>
+      <c r="N3" s="110"/>
+      <c r="O3" s="111"/>
     </row>
     <row r="4" spans="2:21" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="str">
@@ -27448,22 +27470,22 @@
       <c r="D8" s="4">
         <v>77.841777688967127</v>
       </c>
-      <c r="I8" s="113" t="s">
+      <c r="I8" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="S8" s="113" t="s">
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="S8" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -27534,7 +27556,7 @@
       <c r="D10" s="10">
         <v>77.841777688967127</v>
       </c>
-      <c r="G10" s="114" t="s">
+      <c r="G10" s="115" t="s">
         <v>129</v>
       </c>
       <c r="H10" t="s">
@@ -27562,7 +27584,7 @@
         <f>+AVERAGE(L10:N10)</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="114" t="s">
+      <c r="Q10" s="115" t="s">
         <v>129</v>
       </c>
       <c r="R10" t="s">
@@ -27600,7 +27622,7 @@
       <c r="D11" s="4">
         <v>69.193827140333724</v>
       </c>
-      <c r="G11" s="114"/>
+      <c r="G11" s="115"/>
       <c r="H11" t="s">
         <v>31</v>
       </c>
@@ -27629,7 +27651,7 @@
         <f>+AVERAGE(L11:N11)</f>
         <v>0.21372185797562723</v>
       </c>
-      <c r="Q11" s="114"/>
+      <c r="Q11" s="115"/>
       <c r="R11" t="s">
         <v>31</v>
       </c>
@@ -27667,7 +27689,7 @@
       <c r="D12" s="7">
         <v>75.166375708662926</v>
       </c>
-      <c r="G12" s="114"/>
+      <c r="G12" s="115"/>
       <c r="H12" t="s">
         <v>32</v>
       </c>
@@ -27696,7 +27718,7 @@
         <f>+AVERAGE(L12:N12)</f>
         <v>0.1544164310387254</v>
       </c>
-      <c r="Q12" s="114"/>
+      <c r="Q12" s="115"/>
       <c r="R12" t="s">
         <v>32</v>
       </c>
@@ -27734,7 +27756,7 @@
       <c r="D13" s="10">
         <v>87.735056011523966</v>
       </c>
-      <c r="G13" s="114" t="s">
+      <c r="G13" s="115" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="90">
@@ -27755,7 +27777,7 @@
       <c r="N13" s="92">
         <v>2021</v>
       </c>
-      <c r="Q13" s="114" t="s">
+      <c r="Q13" s="115" t="s">
         <v>21</v>
       </c>
       <c r="S13" s="55">
@@ -27793,7 +27815,7 @@
       <c r="D14" s="4">
         <v>47.28933824683137</v>
       </c>
-      <c r="G14" s="114"/>
+      <c r="G14" s="115"/>
       <c r="H14" t="s">
         <v>30</v>
       </c>
@@ -27818,7 +27840,7 @@
       <c r="N14" s="64">
         <v>1</v>
       </c>
-      <c r="Q14" s="114"/>
+      <c r="Q14" s="115"/>
       <c r="R14" t="s">
         <v>30</v>
       </c>
@@ -27856,7 +27878,7 @@
       <c r="D15" s="7">
         <v>78.281203343664757</v>
       </c>
-      <c r="G15" s="114"/>
+      <c r="G15" s="115"/>
       <c r="H15" t="s">
         <v>31</v>
       </c>
@@ -27884,7 +27906,7 @@
         <f>+K15/K14</f>
         <v>0.2177623261694058</v>
       </c>
-      <c r="Q15" s="114"/>
+      <c r="Q15" s="115"/>
       <c r="R15" t="s">
         <v>31</v>
       </c>
@@ -28293,16 +28315,16 @@
       <c r="K30" s="38"/>
     </row>
     <row r="37" spans="8:23" x14ac:dyDescent="0.25">
-      <c r="H37" s="111" t="s">
+      <c r="H37" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="112"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="112"/>
     </row>
     <row r="38" spans="8:23" x14ac:dyDescent="0.25">
       <c r="I38" s="74" t="s">
@@ -28697,12 +28719,12 @@
       <c r="Q60" s="38"/>
       <c r="R60" s="89"/>
       <c r="S60" s="89"/>
-      <c r="T60" s="112" t="s">
+      <c r="T60" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="U60" s="112"/>
-      <c r="V60" s="112"/>
-      <c r="W60" s="112"/>
+      <c r="U60" s="113"/>
+      <c r="V60" s="113"/>
+      <c r="W60" s="113"/>
     </row>
     <row r="61" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
@@ -29176,22 +29198,22 @@
       <c r="D8" s="4">
         <v>77.841777688967127</v>
       </c>
-      <c r="I8" s="113" t="s">
+      <c r="I8" s="114" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="113"/>
-      <c r="K8" s="113"/>
-      <c r="L8" s="113"/>
-      <c r="M8" s="113"/>
-      <c r="N8" s="113"/>
-      <c r="S8" s="113" t="s">
+      <c r="J8" s="114"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
+      <c r="M8" s="114"/>
+      <c r="N8" s="114"/>
+      <c r="S8" s="114" t="s">
         <v>128</v>
       </c>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
+      <c r="T8" s="114"/>
+      <c r="U8" s="114"/>
+      <c r="V8" s="114"/>
+      <c r="W8" s="114"/>
+      <c r="X8" s="114"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -29262,7 +29284,7 @@
       <c r="D10" s="10">
         <v>77.841777688967127</v>
       </c>
-      <c r="G10" s="114" t="s">
+      <c r="G10" s="115" t="s">
         <v>129</v>
       </c>
       <c r="H10" t="s">
@@ -29290,7 +29312,7 @@
         <f>+AVERAGE(L10:N10)</f>
         <v>1</v>
       </c>
-      <c r="Q10" s="114" t="s">
+      <c r="Q10" s="115" t="s">
         <v>129</v>
       </c>
       <c r="R10" t="s">
@@ -29328,7 +29350,7 @@
       <c r="D11" s="4">
         <v>69.193827140333724</v>
       </c>
-      <c r="G11" s="114"/>
+      <c r="G11" s="115"/>
       <c r="H11" t="s">
         <v>31</v>
       </c>
@@ -29357,7 +29379,7 @@
         <f>+AVERAGE(L11:N11)</f>
         <v>0.21372185797562723</v>
       </c>
-      <c r="Q11" s="114"/>
+      <c r="Q11" s="115"/>
       <c r="R11" t="s">
         <v>31</v>
       </c>
@@ -29395,7 +29417,7 @@
       <c r="D12" s="7">
         <v>75.166375708662926</v>
       </c>
-      <c r="G12" s="114"/>
+      <c r="G12" s="115"/>
       <c r="H12" t="s">
         <v>32</v>
       </c>
@@ -29424,7 +29446,7 @@
         <f>+AVERAGE(L12:N12)</f>
         <v>0.1544164310387254</v>
       </c>
-      <c r="Q12" s="114"/>
+      <c r="Q12" s="115"/>
       <c r="R12" t="s">
         <v>32</v>
       </c>
@@ -29462,7 +29484,7 @@
       <c r="D13" s="10">
         <v>87.735056011523966</v>
       </c>
-      <c r="G13" s="114" t="s">
+      <c r="G13" s="115" t="s">
         <v>21</v>
       </c>
       <c r="I13" s="90">
@@ -29483,7 +29505,7 @@
       <c r="N13" s="92">
         <v>2021</v>
       </c>
-      <c r="Q13" s="114" t="s">
+      <c r="Q13" s="115" t="s">
         <v>21</v>
       </c>
       <c r="S13" s="55">
@@ -29521,7 +29543,7 @@
       <c r="D14" s="4">
         <v>47.28933824683137</v>
       </c>
-      <c r="G14" s="114"/>
+      <c r="G14" s="115"/>
       <c r="H14" t="s">
         <v>30</v>
       </c>
@@ -29546,7 +29568,7 @@
       <c r="N14" s="64">
         <v>1</v>
       </c>
-      <c r="Q14" s="114"/>
+      <c r="Q14" s="115"/>
       <c r="R14" t="s">
         <v>30</v>
       </c>
@@ -29584,7 +29606,7 @@
       <c r="D15" s="7">
         <v>78.281203343664757</v>
       </c>
-      <c r="G15" s="114"/>
+      <c r="G15" s="115"/>
       <c r="H15" t="s">
         <v>31</v>
       </c>
@@ -29612,7 +29634,7 @@
         <f>+K15/K14</f>
         <v>0.2177623261694058</v>
       </c>
-      <c r="Q15" s="114"/>
+      <c r="Q15" s="115"/>
       <c r="R15" t="s">
         <v>31</v>
       </c>
@@ -30013,16 +30035,16 @@
       <c r="K30" s="38"/>
     </row>
     <row r="37" spans="8:23" x14ac:dyDescent="0.25">
-      <c r="H37" s="111" t="s">
+      <c r="H37" s="112" t="s">
         <v>117</v>
       </c>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
-      <c r="O37" s="111"/>
+      <c r="I37" s="112"/>
+      <c r="J37" s="112"/>
+      <c r="K37" s="112"/>
+      <c r="L37" s="112"/>
+      <c r="M37" s="112"/>
+      <c r="N37" s="112"/>
+      <c r="O37" s="112"/>
     </row>
     <row r="38" spans="8:23" x14ac:dyDescent="0.25">
       <c r="I38" s="74" t="s">
@@ -30417,12 +30439,12 @@
       <c r="Q60" s="38"/>
       <c r="R60" s="89"/>
       <c r="S60" s="89"/>
-      <c r="T60" s="112" t="s">
+      <c r="T60" s="113" t="s">
         <v>130</v>
       </c>
-      <c r="U60" s="112"/>
-      <c r="V60" s="112"/>
-      <c r="W60" s="112"/>
+      <c r="U60" s="113"/>
+      <c r="V60" s="113"/>
+      <c r="W60" s="113"/>
     </row>
     <row r="61" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A61" s="22"/>
@@ -30820,31 +30842,32 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="C4:N156"/>
+  <dimension ref="C4:V156"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37:F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="5" width="20.85546875" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" customWidth="1"/>
-    <col min="13" max="13" width="18.28515625" customWidth="1"/>
+    <col min="9" max="10" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" customWidth="1"/>
+    <col min="14" max="14" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:14" ht="21" x14ac:dyDescent="0.35">
-      <c r="C4" s="112" t="s">
+    <row r="4" spans="3:15" ht="21" x14ac:dyDescent="0.35">
+      <c r="C4" s="113" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="112"/>
-      <c r="E4" s="112"/>
-      <c r="F4" s="112"/>
-      <c r="G4" s="112"/>
-      <c r="H4" s="112"/>
-    </row>
-    <row r="6" spans="3:14" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="D4" s="113"/>
+      <c r="E4" s="113"/>
+      <c r="F4" s="113"/>
+      <c r="G4" s="113"/>
+      <c r="H4" s="113"/>
+    </row>
+    <row r="6" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
@@ -30852,12 +30875,12 @@
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
     </row>
-    <row r="7" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C7" s="50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="3:14" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" ht="20.25" x14ac:dyDescent="0.25">
       <c r="C9" s="51" t="s">
         <v>67</v>
       </c>
@@ -30876,20 +30899,20 @@
       <c r="H9" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="J9" s="72" t="s">
+      <c r="K9" s="72" t="s">
         <v>112</v>
       </c>
-      <c r="K9" s="72" t="s">
+      <c r="L9" s="72" t="s">
         <v>113</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>124</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>146</v>
       </c>
@@ -30908,22 +30931,22 @@
       <c r="H10" s="54">
         <v>1</v>
       </c>
-      <c r="J10" s="73">
+      <c r="K10" s="73">
         <v>0</v>
       </c>
-      <c r="K10" s="73">
+      <c r="L10" s="73">
         <v>266.73883552000007</v>
       </c>
-      <c r="L10" s="101">
-        <f>+K10/(K10+J10)</f>
+      <c r="M10" s="101">
+        <f>+L10/(L10+K10)</f>
         <v>1</v>
       </c>
-      <c r="N10">
-        <f t="shared" ref="N10:N16" si="0">+J10*$N$20</f>
+      <c r="O10">
+        <f t="shared" ref="O10:O16" si="0">+K10*$O$20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>134</v>
       </c>
@@ -30942,22 +30965,22 @@
       <c r="H11" s="54">
         <v>1</v>
       </c>
-      <c r="J11" s="73">
+      <c r="K11" s="73">
         <v>631.93331851368123</v>
       </c>
-      <c r="K11" s="73">
+      <c r="L11" s="73">
         <v>1503.806323064771</v>
       </c>
-      <c r="L11" s="101">
-        <f t="shared" ref="L11:L16" si="1">+K11/(K11+J11)</f>
+      <c r="M11" s="101">
+        <f t="shared" ref="M11:M16" si="1">+L11/(L11+K11)</f>
         <v>0.70411500249785086</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <f t="shared" si="0"/>
         <v>209.58659412268182</v>
       </c>
     </row>
-    <row r="12" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C12" s="1" t="s">
         <v>136</v>
       </c>
@@ -30976,22 +30999,22 @@
       <c r="H12" s="54">
         <v>1</v>
       </c>
-      <c r="J12" s="73">
+      <c r="K12" s="73">
         <v>6478.3752802727131</v>
       </c>
-      <c r="K12" s="73">
+      <c r="L12" s="73">
         <v>18.33691809886869</v>
       </c>
-      <c r="L12" s="16">
+      <c r="M12" s="16">
         <f t="shared" si="1"/>
         <v>2.8224919834781794E-3</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <f t="shared" si="0"/>
         <v>2148.6137392382743</v>
       </c>
     </row>
-    <row r="13" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C13" s="1" t="s">
         <v>138</v>
       </c>
@@ -31010,22 +31033,22 @@
       <c r="H13" s="54">
         <v>1</v>
       </c>
-      <c r="J13" s="73">
+      <c r="K13" s="73">
         <v>34.54842039201656</v>
       </c>
-      <c r="K13" s="73">
+      <c r="L13" s="73">
         <v>10.111980967983444</v>
       </c>
-      <c r="L13" s="101">
+      <c r="M13" s="101">
         <f t="shared" si="1"/>
         <v>0.2264193930205074</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <f t="shared" si="0"/>
         <v>11.458306675951276</v>
       </c>
     </row>
-    <row r="14" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
         <v>140</v>
       </c>
@@ -31044,22 +31067,22 @@
       <c r="H14" s="54">
         <v>1</v>
       </c>
-      <c r="J14" s="73">
+      <c r="K14" s="73">
         <v>1027.9533241655267</v>
       </c>
-      <c r="K14" s="73">
+      <c r="L14" s="73">
         <v>30.707442634670208</v>
       </c>
-      <c r="L14" s="16">
+      <c r="M14" s="16">
         <f t="shared" si="1"/>
         <v>2.9005932398423979E-2</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <f t="shared" si="0"/>
         <v>340.93033207312595</v>
       </c>
     </row>
-    <row r="15" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>142</v>
       </c>
@@ -31078,22 +31101,22 @@
       <c r="H15" s="54">
         <v>1</v>
       </c>
-      <c r="J15" s="73">
+      <c r="K15" s="73">
         <v>269.39977011015941</v>
       </c>
-      <c r="K15" s="73">
+      <c r="L15" s="73">
         <v>13.932585988360662</v>
       </c>
-      <c r="L15" s="16">
+      <c r="M15" s="16">
         <f t="shared" si="1"/>
         <v>4.9174002504380532E-2</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <f t="shared" si="0"/>
         <v>89.348952841452942</v>
       </c>
     </row>
-    <row r="16" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C16" s="1" t="s">
         <v>144</v>
       </c>
@@ -31112,39 +31135,39 @@
       <c r="H16" s="54">
         <v>1</v>
       </c>
-      <c r="J16" s="73">
+      <c r="K16" s="73">
         <v>0.85610621750016469</v>
       </c>
-      <c r="K16" s="73">
+      <c r="L16" s="73">
         <v>156.89641777093649</v>
       </c>
-      <c r="L16" s="101">
+      <c r="M16" s="101">
         <f t="shared" si="1"/>
         <v>0.99457310605335925</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <f t="shared" si="0"/>
         <v>0.28393563225172275</v>
       </c>
     </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="19"/>
       <c r="F17" s="20"/>
       <c r="G17" s="53"/>
       <c r="H17" s="54"/>
-      <c r="J17" s="100">
-        <f>+SUM(J10:J16)</f>
-        <v>8443.0662196715966</v>
-      </c>
       <c r="K17" s="100">
         <f>+SUM(K10:K16)</f>
+        <v>8443.0662196715966</v>
+      </c>
+      <c r="L17" s="100">
+        <f>+SUM(L10:L16)</f>
         <v>2000.5305040455908</v>
       </c>
-      <c r="L17" s="16"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M17" s="16"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F19" s="38">
         <f>+SUM(F10:F16)</f>
         <v>10443.59672371719</v>
@@ -31155,49 +31178,49 @@
       <c r="I19" t="s">
         <v>148</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>149</v>
       </c>
-      <c r="K19" s="38">
+      <c r="L19" s="38">
         <f>+'Probables Gas'!K28</f>
         <v>774.33048300344308</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="J20" t="s">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="K20" t="s">
         <v>150</v>
       </c>
-      <c r="K20" s="38">
+      <c r="L20" s="38">
         <f>+'Probables Gas'!T15*1000*'Probables Gas'!C8/1000</f>
         <v>2800.2218605837379</v>
       </c>
-      <c r="L20" t="s">
+      <c r="M20" t="s">
         <v>63</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>154</v>
       </c>
-      <c r="N20" s="16">
-        <f>+K20/J17</f>
+      <c r="O20" s="16">
+        <f>+L20/K17</f>
         <v>0.33165935072965186</v>
       </c>
     </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C21" s="50" t="s">
         <v>153</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>151</v>
       </c>
-      <c r="K21" s="38">
-        <f>+K19+K20</f>
+      <c r="L21" s="38">
+        <f>+L19+L20</f>
         <v>3574.552343587181</v>
       </c>
     </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C23" s="51" t="s">
         <v>67</v>
       </c>
@@ -31217,7 +31240,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C24" s="19" t="str" cm="1">
         <f t="array" ref="C24:C30">+C10:C16</f>
         <v>MIN-CAM1</v>
@@ -31231,7 +31254,7 @@
         <v>UP</v>
       </c>
       <c r="F24" s="21">
-        <f>+'Probables Gas'!K21+N10</f>
+        <f>+'Probables Gas'!K21+O10</f>
         <v>108.02263582968502</v>
       </c>
       <c r="G24" s="19">
@@ -31240,9 +31263,9 @@
       <c r="H24" s="18">
         <v>1</v>
       </c>
-      <c r="L24" s="16"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M24" s="16"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C25" s="19" t="str">
         <v>MIN-CAM2</v>
       </c>
@@ -31253,7 +31276,7 @@
         <v>UP</v>
       </c>
       <c r="F25" s="21">
-        <f>+'Probables Gas'!K22+N11</f>
+        <f>+'Probables Gas'!K22+O11</f>
         <v>534.66405895593959</v>
       </c>
       <c r="G25" s="19">
@@ -31262,9 +31285,9 @@
       <c r="H25" s="18">
         <v>1</v>
       </c>
-      <c r="L25" s="16"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M25" s="16"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C26" s="19" t="str">
         <v>MIN-CAM3</v>
       </c>
@@ -31275,7 +31298,7 @@
         <v>UP</v>
       </c>
       <c r="F26" s="21">
-        <f>+'Probables Gas'!K23+N12</f>
+        <f>+'Probables Gas'!K23+O12</f>
         <v>2148.6137392382743</v>
       </c>
       <c r="G26" s="19">
@@ -31284,9 +31307,9 @@
       <c r="H26" s="18">
         <v>1</v>
       </c>
-      <c r="L26" s="16"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M26" s="16"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C27" s="19" t="str">
         <v>MIN-CAM4</v>
       </c>
@@ -31297,7 +31320,7 @@
         <v>UP</v>
       </c>
       <c r="F27" s="21">
-        <f>+'Probables Gas'!K24+N13</f>
+        <f>+'Probables Gas'!K24+O13</f>
         <v>11.458306675951276</v>
       </c>
       <c r="G27" s="19">
@@ -31306,9 +31329,9 @@
       <c r="H27" s="18">
         <v>1</v>
       </c>
-      <c r="L27" s="16"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M27" s="16"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C28" s="19" t="str">
         <v>MIN-CAM5</v>
       </c>
@@ -31319,7 +31342,7 @@
         <v>UP</v>
       </c>
       <c r="F28" s="21">
-        <f>+'Probables Gas'!K25+N14</f>
+        <f>+'Probables Gas'!K25+O14</f>
         <v>457.02942665643229</v>
       </c>
       <c r="G28" s="19">
@@ -31328,9 +31351,9 @@
       <c r="H28" s="18">
         <v>1</v>
       </c>
-      <c r="L28" s="16"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M28" s="16"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C29" s="19" t="str">
         <v>MIN-CAM6</v>
       </c>
@@ -31341,7 +31364,7 @@
         <v>UP</v>
       </c>
       <c r="F29" s="21">
-        <f>+'Probables Gas'!K26+N15</f>
+        <f>+'Probables Gas'!K26+O15</f>
         <v>89.348952841452942</v>
       </c>
       <c r="G29" s="19">
@@ -31350,9 +31373,9 @@
       <c r="H29" s="18">
         <v>1</v>
       </c>
-      <c r="L29" s="16"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M29" s="16"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
       <c r="C30" s="19" t="str">
         <v>MIN-CAM7</v>
       </c>
@@ -31363,7 +31386,7 @@
         <v>UP</v>
       </c>
       <c r="F30" s="21">
-        <f>+'Probables Gas'!K27+N16</f>
+        <f>+'Probables Gas'!K27+O16</f>
         <v>225.41522338944571</v>
       </c>
       <c r="G30" s="19">
@@ -31372,20 +31395,20 @@
       <c r="H30" s="18">
         <v>1</v>
       </c>
-      <c r="L30" s="16"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="M30" s="16"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
       <c r="F32" s="20">
         <f>+SUM(F24:F30)</f>
         <v>3574.5523435871814</v>
       </c>
     </row>
-    <row r="35" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D35" s="107" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C36" s="51" t="s">
         <v>67</v>
       </c>
@@ -31407,8 +31430,9 @@
       <c r="I36" s="106" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="37" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="108"/>
+    </row>
+    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C37" s="19" t="str">
         <f t="shared" ref="C37:C43" si="2">+D48</f>
         <v>MIN-P2-CAM1</v>
@@ -31422,14 +31446,12 @@
       <c r="F37" s="21">
         <v>108.02263582968502</v>
       </c>
-      <c r="G37" s="19">
-        <v>1</v>
-      </c>
+      <c r="G37" s="19"/>
       <c r="H37" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C38" s="19" t="str">
         <f t="shared" si="2"/>
         <v>MIN-P2-CAM2</v>
@@ -31450,7 +31472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C39" s="19" t="str">
         <f t="shared" si="2"/>
         <v>MIN-P2-CAM3</v>
@@ -31471,7 +31493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C40" s="19" t="str">
         <f t="shared" si="2"/>
         <v>MIN-P2-CAM4</v>
@@ -31492,7 +31514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C41" s="19" t="str">
         <f t="shared" si="2"/>
         <v>MIN-P2-CAM5</v>
@@ -31513,7 +31535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C42" s="19" t="str">
         <f t="shared" si="2"/>
         <v>MIN-P2-CAM6</v>
@@ -31534,7 +31556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C43" s="19" t="str">
         <f t="shared" si="2"/>
         <v>MIN-P2-CAM7</v>
@@ -31548,14 +31570,12 @@
       <c r="F43" s="21">
         <v>225.41522338944571</v>
       </c>
-      <c r="G43" s="19">
-        <v>1</v>
-      </c>
+      <c r="G43" s="19"/>
       <c r="H43" s="18">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
       <c r="D46" s="102" t="s">
         <v>155</v>
       </c>
@@ -31563,7 +31583,7 @@
       <c r="F46" s="103"/>
       <c r="G46" s="103"/>
     </row>
-    <row r="47" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C47" s="104" t="s">
         <v>156</v>
       </c>
@@ -31580,7 +31600,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C48" t="s">
         <v>167</v>
       </c>
@@ -31597,7 +31617,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
         <v>160</v>
       </c>
@@ -31611,7 +31631,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
         <v>162</v>
       </c>
@@ -31625,7 +31645,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
         <v>163</v>
       </c>
@@ -31639,7 +31659,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
         <v>164</v>
       </c>
@@ -31653,7 +31673,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
         <v>165</v>
       </c>
@@ -31667,7 +31687,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
         <v>166</v>
       </c>
@@ -31681,12 +31701,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="D57" s="107" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="58" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="D57" s="107"/>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C58" s="51" t="s">
         <v>67</v>
       </c>
@@ -31699,8 +31717,14 @@
       <c r="F58" s="105" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="59" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>179</v>
+      </c>
+      <c r="K58" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C59" s="19" t="str">
         <f>+D48</f>
         <v>MIN-P2-CAM1</v>
@@ -31714,8 +31738,47 @@
       <c r="F59" s="97">
         <v>68.585731940983607</v>
       </c>
-    </row>
-    <row r="60" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>181</v>
+      </c>
+      <c r="K59" t="s">
+        <v>182</v>
+      </c>
+      <c r="L59">
+        <v>2025</v>
+      </c>
+      <c r="M59">
+        <v>2027</v>
+      </c>
+      <c r="N59">
+        <v>2030</v>
+      </c>
+      <c r="O59">
+        <v>2033</v>
+      </c>
+      <c r="P59">
+        <v>2035</v>
+      </c>
+      <c r="Q59">
+        <v>2037</v>
+      </c>
+      <c r="R59">
+        <v>2040</v>
+      </c>
+      <c r="S59">
+        <v>2043</v>
+      </c>
+      <c r="T59">
+        <v>2045</v>
+      </c>
+      <c r="U59">
+        <v>2047</v>
+      </c>
+      <c r="V59">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
         <v>176</v>
@@ -31726,8 +31789,30 @@
       <c r="F60" s="97">
         <v>48.786177197519166</v>
       </c>
-    </row>
-    <row r="61" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>161</v>
+      </c>
+      <c r="J60">
+        <f>+SUM(M60:V60)</f>
+        <v>40.434425781458252</v>
+      </c>
+      <c r="K60" t="s">
+        <v>183</v>
+      </c>
+      <c r="S60">
+        <v>7.17367325022615</v>
+      </c>
+      <c r="T60">
+        <v>11.0869175104107</v>
+      </c>
+      <c r="U60">
+        <v>11.0869175104107</v>
+      </c>
+      <c r="V60">
+        <v>11.0869175104107</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C61" s="19"/>
       <c r="D61" s="19" t="s">
         <v>176</v>
@@ -31738,8 +31823,41 @@
       <c r="F61" s="97">
         <v>43.035587284288795</v>
       </c>
-    </row>
-    <row r="62" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>160</v>
+      </c>
+      <c r="K61" t="s">
+        <v>184</v>
+      </c>
+      <c r="N61">
+        <v>20.707361263594901</v>
+      </c>
+      <c r="O61">
+        <v>47.449023939819703</v>
+      </c>
+      <c r="P61">
+        <v>47.449023939819703</v>
+      </c>
+      <c r="Q61">
+        <v>39.112638374469498</v>
+      </c>
+      <c r="R61">
+        <v>23.3968962245543</v>
+      </c>
+      <c r="S61">
+        <v>10.7866323904376</v>
+      </c>
+      <c r="T61">
+        <v>9.0936013935059599</v>
+      </c>
+      <c r="U61">
+        <v>8.1321048795691606</v>
+      </c>
+      <c r="V61">
+        <v>6.6898601086639404</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C62" s="19"/>
       <c r="D62" s="19" t="s">
         <v>176</v>
@@ -31750,8 +31868,39 @@
       <c r="F62" s="97">
         <v>34.570563154586416</v>
       </c>
-    </row>
-    <row r="63" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>160</v>
+      </c>
+      <c r="J62">
+        <f t="shared" ref="J62:J72" si="3">+SUM(M62:V62)</f>
+        <v>220.03208780080101</v>
+      </c>
+      <c r="K62" t="s">
+        <v>183</v>
+      </c>
+      <c r="P62">
+        <v>14.9047935838458</v>
+      </c>
+      <c r="Q62">
+        <v>47.449023939819703</v>
+      </c>
+      <c r="R62">
+        <v>31.539193461398799</v>
+      </c>
+      <c r="S62">
+        <v>31.539193461398799</v>
+      </c>
+      <c r="T62">
+        <v>31.539193461398799</v>
+      </c>
+      <c r="U62">
+        <v>31.539193461398799</v>
+      </c>
+      <c r="V62">
+        <v>31.521496431540299</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C63" s="19"/>
       <c r="D63" s="19" t="s">
         <v>176</v>
@@ -31762,8 +31911,32 @@
       <c r="F63" s="97">
         <v>27.716174687025134</v>
       </c>
-    </row>
-    <row r="64" spans="3:7" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>162</v>
+      </c>
+      <c r="K63" t="s">
+        <v>184</v>
+      </c>
+      <c r="N63">
+        <v>294.19822216834098</v>
+      </c>
+      <c r="O63">
+        <v>196.28000404375501</v>
+      </c>
+      <c r="P63">
+        <v>151.73365907601499</v>
+      </c>
+      <c r="Q63">
+        <v>35.113596160592401</v>
+      </c>
+      <c r="R63">
+        <v>85.071459028422396</v>
+      </c>
+      <c r="S63">
+        <v>16.090057681167</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C64" s="19"/>
       <c r="D64" s="19" t="s">
         <v>176</v>
@@ -31774,8 +31947,33 @@
       <c r="F64" s="97">
         <v>5.2673740760556509</v>
       </c>
-    </row>
-    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>162</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="3"/>
+        <v>882.37193335756444</v>
+      </c>
+      <c r="K64" t="s">
+        <v>183</v>
+      </c>
+      <c r="N64">
+        <v>46.515461099423497</v>
+      </c>
+      <c r="O64">
+        <v>257.74081625734402</v>
+      </c>
+      <c r="P64">
+        <v>257.74081625734402</v>
+      </c>
+      <c r="Q64">
+        <v>240.76124457708099</v>
+      </c>
+      <c r="R64">
+        <v>79.613595166371994</v>
+      </c>
+    </row>
+    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C65" s="19"/>
       <c r="D65" s="19" t="s">
         <v>176</v>
@@ -31786,8 +31984,20 @@
       <c r="F65" s="97">
         <v>3.6668988156729534</v>
       </c>
-    </row>
-    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>163</v>
+      </c>
+      <c r="K65" t="s">
+        <v>184</v>
+      </c>
+      <c r="L65">
+        <v>2.5307719476166302</v>
+      </c>
+      <c r="M65">
+        <v>3.1983813903590201</v>
+      </c>
+    </row>
+    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C66" s="19"/>
       <c r="D66" s="19" t="s">
         <v>176</v>
@@ -31798,8 +32008,24 @@
       <c r="F66" s="97">
         <v>2.86729599242289</v>
       </c>
-    </row>
-    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>163</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="3"/>
+        <v>3.1983813903590201</v>
+      </c>
+      <c r="K66" t="s">
+        <v>183</v>
+      </c>
+      <c r="L66">
+        <v>2.5307719476166302</v>
+      </c>
+      <c r="M66">
+        <v>3.1983813903590201</v>
+      </c>
+    </row>
+    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C67" s="19"/>
       <c r="D67" s="19" t="s">
         <v>176</v>
@@ -31810,8 +32036,32 @@
       <c r="F67" s="97">
         <v>2.3371052350566992</v>
       </c>
-    </row>
-    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>164</v>
+      </c>
+      <c r="K67" t="s">
+        <v>184</v>
+      </c>
+      <c r="M67">
+        <v>51.669810197356398</v>
+      </c>
+      <c r="N67">
+        <v>46.137865880580001</v>
+      </c>
+      <c r="O67">
+        <v>34.938129288697098</v>
+      </c>
+      <c r="P67">
+        <v>27.471638227441801</v>
+      </c>
+      <c r="Q67">
+        <v>22.774089751023499</v>
+      </c>
+      <c r="R67">
+        <v>3.3234549323190898</v>
+      </c>
+    </row>
+    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C68" s="19"/>
       <c r="D68" s="19" t="s">
         <v>176</v>
@@ -31822,8 +32072,30 @@
       <c r="F68" s="97">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>164</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="3"/>
+        <v>173.9694624499966</v>
+      </c>
+      <c r="K68" t="s">
+        <v>183</v>
+      </c>
+      <c r="M68">
+        <v>50.422896069352703</v>
+      </c>
+      <c r="N68">
+        <v>54.545250878219299</v>
+      </c>
+      <c r="O68">
+        <v>54.545250878219299</v>
+      </c>
+      <c r="P68">
+        <v>14.4560646242053</v>
+      </c>
+    </row>
+    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C69" s="19"/>
       <c r="D69" s="19" t="s">
         <v>176</v>
@@ -31834,8 +32106,32 @@
       <c r="F69" s="97">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>165</v>
+      </c>
+      <c r="K69" t="s">
+        <v>184</v>
+      </c>
+      <c r="O69">
+        <v>8.1699853499332509</v>
+      </c>
+      <c r="P69">
+        <v>8.8839477570677001</v>
+      </c>
+      <c r="Q69">
+        <v>7.6545148810463104</v>
+      </c>
+      <c r="R69">
+        <v>5.5289075934361902</v>
+      </c>
+      <c r="S69">
+        <v>4.80752730377489</v>
+      </c>
+      <c r="T69">
+        <v>0.376383411895933</v>
+      </c>
+    </row>
+    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C70" s="19"/>
       <c r="D70" s="19" t="s">
         <v>176</v>
@@ -31846,8 +32142,30 @@
       <c r="F70" s="97">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>165</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="3"/>
+        <v>37.846734674025846</v>
+      </c>
+      <c r="K70" t="s">
+        <v>183</v>
+      </c>
+      <c r="O70">
+        <v>8.6080232368613991</v>
+      </c>
+      <c r="P70">
+        <v>12.0956255903123</v>
+      </c>
+      <c r="Q70">
+        <v>12.0956255903123</v>
+      </c>
+      <c r="R70">
+        <v>5.0474602565398401</v>
+      </c>
+    </row>
+    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
         <v>176</v>
@@ -31858,8 +32176,38 @@
       <c r="F71" s="97">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>166</v>
+      </c>
+      <c r="K71" t="s">
+        <v>184</v>
+      </c>
+      <c r="O71">
+        <v>2.95074011438115</v>
+      </c>
+      <c r="P71">
+        <v>5.2908833074602102</v>
+      </c>
+      <c r="Q71">
+        <v>4.5396783970548498</v>
+      </c>
+      <c r="R71">
+        <v>3.6489860397841101</v>
+      </c>
+      <c r="S71">
+        <v>0.66755939822291899</v>
+      </c>
+      <c r="T71">
+        <v>0.566753403986896</v>
+      </c>
+      <c r="U71">
+        <v>0.48255766260835398</v>
+      </c>
+      <c r="V71">
+        <v>0.19724675268257499</v>
+      </c>
+    </row>
+    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C72" s="19"/>
       <c r="D72" s="19" t="s">
         <v>176</v>
@@ -31870,8 +32218,39 @@
       <c r="F72" s="97">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>166</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="3"/>
+        <v>44.079158771804565</v>
+      </c>
+      <c r="K72" t="s">
+        <v>183</v>
+      </c>
+      <c r="P72">
+        <v>4.3091944541722</v>
+      </c>
+      <c r="Q72">
+        <v>6.6283273862720602</v>
+      </c>
+      <c r="R72">
+        <v>6.6283273862720602</v>
+      </c>
+      <c r="S72">
+        <v>6.6283273862720602</v>
+      </c>
+      <c r="T72">
+        <v>6.6283273862720602</v>
+      </c>
+      <c r="U72">
+        <v>6.6283273862720602</v>
+      </c>
+      <c r="V72">
+        <v>6.6283273862720602</v>
+      </c>
+    </row>
+    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
       <c r="C73" s="19" t="str">
         <f>+D49</f>
         <v>MIN-P2-CAM2</v>
@@ -31886,7 +32265,7 @@
         <v>363.68563536317856</v>
       </c>
     </row>
-    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D74" s="19" t="s">
         <v>176</v>
       </c>
@@ -31896,8 +32275,12 @@
       <c r="F74" s="97">
         <v>357.03963544887284</v>
       </c>
-    </row>
-    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <f>+SUM(L66:V72)</f>
+        <v>501.70516888455614</v>
+      </c>
+    </row>
+    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D75" s="19" t="s">
         <v>176</v>
       </c>
@@ -31908,7 +32291,7 @@
         <v>291.71333965512213</v>
       </c>
     </row>
-    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D76" s="19" t="s">
         <v>176</v>
       </c>
@@ -31919,7 +32302,7 @@
         <v>219.06541620476196</v>
       </c>
     </row>
-    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D77" s="19" t="s">
         <v>176</v>
       </c>
@@ -31930,7 +32313,7 @@
         <v>126.28578711913453</v>
       </c>
     </row>
-    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D78" s="19" t="s">
         <v>176</v>
       </c>
@@ -31941,7 +32324,7 @@
         <v>93.858549318283977</v>
       </c>
     </row>
-    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D79" s="19" t="s">
         <v>176</v>
       </c>
@@ -31952,7 +32335,7 @@
         <v>67.926190092891318</v>
       </c>
     </row>
-    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
       <c r="D80" s="19" t="s">
         <v>176</v>
       </c>
@@ -32820,6 +33203,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="I59:V59" xr:uid="{7EEE33C0-41CF-4CB7-BFAC-9A49B99B309D}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="I60:V72">
+      <sortCondition ref="I59"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="C4:H4"/>
   </mergeCells>

--- a/SubRES_TMPL/SubRES_R_Probables.xlsx
+++ b/SubRES_TMPL/SubRES_R_Probables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CARMEN\Documents\GitHub\TIMES-UIS-v1-Nov\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499EDE16-DC06-49AC-915E-896C994C9FE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3CD4FD-21B7-42A6-A6C3-660A5C3C81D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{FC596A1D-735D-47D8-8E25-30449B5B17D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{FC596A1D-735D-47D8-8E25-30449B5B17D4}"/>
   </bookViews>
   <sheets>
     <sheet name="6. Reservas" sheetId="1" r:id="rId1"/>
@@ -199,8 +199,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1959,7 +1957,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2487,7 +2485,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1628249055"/>
@@ -2546,7 +2544,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-CO"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1628235327"/>
@@ -2588,7 +2586,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-CO"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2625,7 +2623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-CO"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -30844,8 +30842,8 @@
   </sheetPr>
   <dimension ref="C4:V156"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37:F43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30926,7 +30924,7 @@
         <v>266.73883552000007</v>
       </c>
       <c r="G10" s="53">
-        <v>9.9999999999999995E-7</v>
+        <v>2</v>
       </c>
       <c r="H10" s="54">
         <v>1</v>
@@ -30960,7 +30958,7 @@
         <v>2135.7396415784524</v>
       </c>
       <c r="G11" s="53">
-        <v>9.9999999999999995E-7</v>
+        <v>2</v>
       </c>
       <c r="H11" s="54">
         <v>1</v>
@@ -30994,7 +30992,7 @@
         <v>6496.7121983715815</v>
       </c>
       <c r="G12" s="53">
-        <v>9.9999999999999995E-7</v>
+        <v>2</v>
       </c>
       <c r="H12" s="54">
         <v>1</v>
@@ -31028,7 +31026,7 @@
         <v>44.660401360000002</v>
       </c>
       <c r="G13" s="53">
-        <v>9.9999999999999995E-7</v>
+        <v>2</v>
       </c>
       <c r="H13" s="54">
         <v>1</v>
@@ -31062,7 +31060,7 @@
         <v>1058.6607668001971</v>
       </c>
       <c r="G14" s="53">
-        <v>9.9999999999999995E-7</v>
+        <v>2</v>
       </c>
       <c r="H14" s="54">
         <v>1</v>
@@ -31096,7 +31094,7 @@
         <v>283.33235609852005</v>
       </c>
       <c r="G15" s="53">
-        <v>9.9999999999999995E-7</v>
+        <v>2</v>
       </c>
       <c r="H15" s="54">
         <v>1</v>
@@ -31130,7 +31128,7 @@
         <v>157.75252398843665</v>
       </c>
       <c r="G16" s="53">
-        <v>9.9999999999999995E-7</v>
+        <v>2</v>
       </c>
       <c r="H16" s="54">
         <v>1</v>
@@ -31258,7 +31256,7 @@
         <v>108.02263582968502</v>
       </c>
       <c r="G24" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H24" s="18">
         <v>1</v>
@@ -31280,7 +31278,7 @@
         <v>534.66405895593959</v>
       </c>
       <c r="G25" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H25" s="18">
         <v>1</v>
@@ -31302,7 +31300,7 @@
         <v>2148.6137392382743</v>
       </c>
       <c r="G26" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H26" s="18">
         <v>1</v>
@@ -31324,7 +31322,7 @@
         <v>11.458306675951276</v>
       </c>
       <c r="G27" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H27" s="18">
         <v>1</v>
@@ -31346,7 +31344,7 @@
         <v>457.02942665643229</v>
       </c>
       <c r="G28" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H28" s="18">
         <v>1</v>
@@ -31368,7 +31366,7 @@
         <v>89.348952841452942</v>
       </c>
       <c r="G29" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="18">
         <v>1</v>
@@ -31390,7 +31388,7 @@
         <v>225.41522338944571</v>
       </c>
       <c r="G30" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" s="18">
         <v>1</v>
@@ -31446,7 +31444,9 @@
       <c r="F37" s="21">
         <v>108.02263582968502</v>
       </c>
-      <c r="G37" s="19"/>
+      <c r="G37" s="19">
+        <v>2</v>
+      </c>
       <c r="H37" s="18">
         <v>1</v>
       </c>
@@ -31466,7 +31466,7 @@
         <v>534.66405895593959</v>
       </c>
       <c r="G38" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H38" s="18">
         <v>1</v>
@@ -31487,7 +31487,7 @@
         <v>2148.6137392382743</v>
       </c>
       <c r="G39" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H39" s="18">
         <v>1</v>
@@ -31508,7 +31508,7 @@
         <v>11.458306675951276</v>
       </c>
       <c r="G40" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H40" s="18">
         <v>1</v>
@@ -31529,7 +31529,7 @@
         <v>457.02942665643229</v>
       </c>
       <c r="G41" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H41" s="18">
         <v>1</v>
@@ -31550,7 +31550,7 @@
         <v>89.348952841452942</v>
       </c>
       <c r="G42" s="19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H42" s="18">
         <v>1</v>
@@ -31570,7 +31570,9 @@
       <c r="F43" s="21">
         <v>225.41522338944571</v>
       </c>
-      <c r="G43" s="19"/>
+      <c r="G43" s="19">
+        <v>2</v>
+      </c>
       <c r="H43" s="18">
         <v>1</v>
       </c>

--- a/SubRES_TMPL/SubRES_R_Probables.xlsx
+++ b/SubRES_TMPL/SubRES_R_Probables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CARMEN\Documents\GitHub\TIMES-UIS-v1-Nov\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JULIAN\Music\TIMES-UIS-v1-Nov\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3CD4FD-21B7-42A6-A6C3-660A5C3C81D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF73559B-1CA7-41A1-9DC0-536A44EE8C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{FC596A1D-735D-47D8-8E25-30449B5B17D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FC596A1D-735D-47D8-8E25-30449B5B17D4}"/>
   </bookViews>
   <sheets>
     <sheet name="6. Reservas" sheetId="1" r:id="rId1"/>
@@ -1051,13 +1051,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="7">
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.0"/>
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
-    <numFmt numFmtId="166" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="\Te\x\t"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0E+00"/>
+    <numFmt numFmtId="167" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="\Te\x\t"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -1536,7 +1536,7 @@
   </borders>
   <cellStyleXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
@@ -1544,14 +1544,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
@@ -1611,11 +1611,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1675,7 +1675,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1686,7 +1686,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1697,7 +1697,7 @@
     <xf numFmtId="0" fontId="12" fillId="6" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="13" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="13" fillId="7" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1771,22 +1771,22 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="169" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="19" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="21" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="21" fillId="6" borderId="11" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1957,7 +1957,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2485,7 +2485,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1628249055"/>
@@ -2544,7 +2544,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="es-CO"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1628235327"/>
@@ -2586,7 +2586,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="es-CO"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2623,7 +2623,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="es-CO"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3322,7 +3322,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Main Menu"/>
@@ -25164,7 +25164,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="IEA Data"/>
@@ -25299,7 +25299,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="COMM"/>
@@ -25834,25 +25834,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{181F1CC8-2C56-4CAC-AD4A-B1AFE9FC8086}">
   <dimension ref="B3:AF79"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="K4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X24" sqref="X24:Z33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3:O9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="9" width="16.28515625" customWidth="1"/>
-    <col min="10" max="10" width="34.5703125" customWidth="1"/>
-    <col min="11" max="11" width="16.28515625" customWidth="1"/>
+    <col min="8" max="9" width="16.33203125" customWidth="1"/>
+    <col min="10" max="10" width="34.5546875" customWidth="1"/>
+    <col min="11" max="11" width="16.33203125" customWidth="1"/>
     <col min="12" max="12" width="17" customWidth="1"/>
-    <col min="13" max="13" width="19.140625" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
-    <col min="15" max="15" width="19.140625" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" customWidth="1"/>
-    <col min="19" max="19" width="10.5703125" customWidth="1"/>
-    <col min="20" max="20" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.109375" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
+    <col min="15" max="15" width="19.109375" customWidth="1"/>
+    <col min="18" max="18" width="15.33203125" customWidth="1"/>
+    <col min="19" max="19" width="10.5546875" customWidth="1"/>
+    <col min="20" max="20" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
       <c r="J3" s="109" t="s">
         <v>48</v>
       </c>
@@ -25864,7 +25864,7 @@
       <c r="N3" s="110"/>
       <c r="O3" s="111"/>
     </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="str">
         <f>'[3]5. Data'!D4</f>
         <v>PCI</v>
@@ -25894,7 +25894,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="E5" s="1" t="str">
         <f>'[3]5. Data'!E5</f>
@@ -25926,7 +25926,7 @@
         <v>2037</v>
       </c>
     </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:21" x14ac:dyDescent="0.3">
       <c r="C6" t="str">
         <f>'[3]5. Data'!C6</f>
         <v>Energético</v>
@@ -25963,7 +25963,7 @@
         <v>0.31320569464899362</v>
       </c>
     </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="str">
         <f>'[3]5. Data'!B7</f>
         <v>GAS</v>
@@ -26005,7 +26005,7 @@
         <v>0.72257053291536055</v>
       </c>
     </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="str">
         <f>'[3]5. Data'!B8</f>
         <v>LOIL</v>
@@ -26038,7 +26038,7 @@
         <v>3.6681127982646422</v>
       </c>
     </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="str">
         <f>'[3]5. Data'!B9</f>
         <v>MOIL</v>
@@ -26078,7 +26078,7 @@
         <v>1.0697811945594322</v>
       </c>
     </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="str">
         <f>'[3]5. Data'!B10</f>
         <v>HOIL</v>
@@ -26103,7 +26103,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="str">
         <f>'[3]5. Data'!B11</f>
         <v>GSL</v>
@@ -26128,7 +26128,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="str">
         <f>'[3]5. Data'!B12</f>
         <v>DSL</v>
@@ -26146,7 +26146,7 @@
         <v>75.166375708662926</v>
       </c>
     </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="str">
         <f>'[3]5. Data'!B13</f>
         <v>KER</v>
@@ -26165,7 +26165,7 @@
       </c>
       <c r="U13" s="11"/>
     </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="str">
         <f>'[3]5. Data'!B14</f>
         <v>LPG</v>
@@ -26183,7 +26183,7 @@
         <v>47.28933824683137</v>
       </c>
     </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="str">
         <f>'[3]5. Data'!B15</f>
         <v>HFO</v>
@@ -26204,7 +26204,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="str">
         <f>'[3]5. Data'!B16</f>
         <v>AVG</v>
@@ -26243,7 +26243,7 @@
         <v>0.28000000000000003</v>
       </c>
     </row>
-    <row r="17" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="str">
         <f>'[3]5. Data'!B17</f>
         <v>RFG</v>
@@ -26305,7 +26305,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="18" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B18" s="13" t="str">
         <f>'[3]5. Data'!B18</f>
         <v>*Para todos, menos gas natural, las unidades son TJ/Mpc; PJ/kpc</v>
@@ -26363,7 +26363,7 @@
       </c>
       <c r="AE18" s="48"/>
     </row>
-    <row r="19" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:32" x14ac:dyDescent="0.3">
       <c r="J19" s="14" t="s">
         <v>4</v>
       </c>
@@ -26419,7 +26419,7 @@
         <v>1441.08</v>
       </c>
     </row>
-    <row r="20" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:32" x14ac:dyDescent="0.3">
       <c r="J20" s="14" t="s">
         <v>5</v>
       </c>
@@ -26475,7 +26475,7 @@
         <v>560.42000000000007</v>
       </c>
     </row>
-    <row r="21" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -26533,7 +26533,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:32" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>6</v>
       </c>
@@ -26593,7 +26593,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:32" x14ac:dyDescent="0.3">
       <c r="C23">
         <v>5800</v>
       </c>
@@ -26636,7 +26636,7 @@
         <v>-238.875</v>
       </c>
     </row>
-    <row r="24" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:32" x14ac:dyDescent="0.3">
       <c r="K24" s="12">
         <f t="shared" ref="K24:M24" si="5">+SUM(K18:K23)</f>
         <v>2084</v>
@@ -26687,7 +26687,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:32" x14ac:dyDescent="0.3">
       <c r="X25" t="s">
         <v>59</v>
       </c>
@@ -26701,7 +26701,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="26" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:32" x14ac:dyDescent="0.3">
       <c r="J26" t="s">
         <v>13</v>
       </c>
@@ -26764,7 +26764,7 @@
         <v>0.38352133398724864</v>
       </c>
     </row>
-    <row r="27" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:32" x14ac:dyDescent="0.3">
       <c r="J27" t="s">
         <v>14</v>
       </c>
@@ -26835,7 +26835,7 @@
         <v>1688.3259911894272</v>
       </c>
     </row>
-    <row r="28" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:32" x14ac:dyDescent="0.3">
       <c r="J28" t="s">
         <v>15</v>
       </c>
@@ -26881,7 +26881,7 @@
         <v>0.31868131868131866</v>
       </c>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.3">
       <c r="J29" t="s">
         <v>16</v>
       </c>
@@ -26927,7 +26927,7 @@
         <v>0.1695447409733124</v>
       </c>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.3">
       <c r="J30" t="s">
         <v>17</v>
       </c>
@@ -26979,7 +26979,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.3">
       <c r="X31" t="s">
         <v>59</v>
       </c>
@@ -26990,7 +26990,7 @@
         <v>3164</v>
       </c>
     </row>
-    <row r="32" spans="2:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:32" x14ac:dyDescent="0.3">
       <c r="X32" t="s">
         <v>60</v>
       </c>
@@ -27009,7 +27009,7 @@
         <v>0.21744627054361568</v>
       </c>
     </row>
-    <row r="33" spans="24:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="24:29" x14ac:dyDescent="0.3">
       <c r="X33" t="s">
         <v>61</v>
       </c>
@@ -27028,7 +27028,7 @@
         <v>0.42003792667509482</v>
       </c>
     </row>
-    <row r="54" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:25" x14ac:dyDescent="0.3">
       <c r="R54" s="17" t="e">
         <f>+R57/(R57+S57)</f>
         <v>#DIV/0!</v>
@@ -27038,14 +27038,14 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="55" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:25" x14ac:dyDescent="0.3">
       <c r="Q55" s="1"/>
       <c r="R55" s="19" t="s">
         <v>18</v>
       </c>
       <c r="S55" s="19"/>
     </row>
-    <row r="56" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="10:25" x14ac:dyDescent="0.3">
       <c r="J56" s="1"/>
       <c r="K56" s="1" t="s">
         <v>18</v>
@@ -27067,7 +27067,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:25" x14ac:dyDescent="0.3">
       <c r="J57" s="1" t="s">
         <v>24</v>
       </c>
@@ -27087,7 +27087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:25" x14ac:dyDescent="0.3">
       <c r="J58" s="1" t="s">
         <v>25</v>
       </c>
@@ -27109,7 +27109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="10:25" x14ac:dyDescent="0.3">
       <c r="Q62" t="s">
         <v>26</v>
       </c>
@@ -27117,7 +27117,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="10:25" x14ac:dyDescent="0.3">
       <c r="R63" t="s">
         <v>30</v>
       </c>
@@ -27137,7 +27137,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="64" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="10:25" x14ac:dyDescent="0.3">
       <c r="Q64" t="s">
         <v>34</v>
       </c>
@@ -27166,7 +27166,7 @@
         <v>16.15291750724262</v>
       </c>
     </row>
-    <row r="65" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:25" x14ac:dyDescent="0.3">
       <c r="Q65" t="s">
         <v>36</v>
       </c>
@@ -27195,7 +27195,7 @@
         <v>231.18863182241</v>
       </c>
     </row>
-    <row r="66" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="66" spans="10:25" x14ac:dyDescent="0.3">
       <c r="Q66" t="s">
         <v>38</v>
       </c>
@@ -27224,7 +27224,7 @@
         <v>22.210261572458602</v>
       </c>
     </row>
-    <row r="67" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:25" x14ac:dyDescent="0.3">
       <c r="Q67" t="s">
         <v>40</v>
       </c>
@@ -27253,7 +27253,7 @@
         <v>73.697686126794451</v>
       </c>
     </row>
-    <row r="68" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="68" spans="10:25" x14ac:dyDescent="0.3">
       <c r="Q68" t="s">
         <v>42</v>
       </c>
@@ -27282,7 +27282,7 @@
         <v>56.53521127534917</v>
       </c>
     </row>
-    <row r="70" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="70" spans="10:25" x14ac:dyDescent="0.3">
       <c r="J70" t="s">
         <v>43</v>
       </c>
@@ -27303,7 +27303,7 @@
         <v>399.78470830425488</v>
       </c>
     </row>
-    <row r="71" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="71" spans="10:25" x14ac:dyDescent="0.3">
       <c r="J71" t="s">
         <v>44</v>
       </c>
@@ -27312,7 +27312,7 @@
         <v>157.74</v>
       </c>
     </row>
-    <row r="72" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:25" x14ac:dyDescent="0.3">
       <c r="J72" t="s">
         <v>45</v>
       </c>
@@ -27320,7 +27320,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="73" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="73" spans="10:25" x14ac:dyDescent="0.3">
       <c r="J73" t="s">
         <v>46</v>
       </c>
@@ -27328,20 +27328,20 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="75" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="75" spans="10:25" x14ac:dyDescent="0.3">
       <c r="K75">
         <f>+K71+K70</f>
         <v>1019.86</v>
       </c>
       <c r="T75" s="22"/>
     </row>
-    <row r="76" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="76" spans="10:25" x14ac:dyDescent="0.3">
       <c r="T76" s="22"/>
     </row>
-    <row r="77" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="77" spans="10:25" x14ac:dyDescent="0.3">
       <c r="T77" s="22"/>
     </row>
-    <row r="78" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="78" spans="10:25" x14ac:dyDescent="0.3">
       <c r="J78" t="s">
         <v>21</v>
       </c>
@@ -27358,7 +27358,7 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="79" spans="10:25" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:25" x14ac:dyDescent="0.3">
       <c r="J79" t="s">
         <v>47</v>
       </c>
@@ -27391,19 +27391,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F927D49-BB67-4913-90AC-B7412F6FC7C0}">
   <dimension ref="A4:Y158"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>75</v>
       </c>
@@ -27411,13 +27411,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>78</v>
       </c>
@@ -27441,7 +27441,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -27455,7 +27455,7 @@
         <v>55.539114956987063</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -27485,7 +27485,7 @@
       <c r="W8" s="114"/>
       <c r="X8" s="114"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -27541,7 +27541,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -27607,7 +27607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -27674,7 +27674,7 @@
         <v>0.38366595333723663</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>91</v>
       </c>
@@ -27741,7 +27741,7 @@
         <v>0.3094426038072563</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -27800,7 +27800,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
@@ -27863,7 +27863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
@@ -27931,7 +27931,7 @@
         <v>0.38366595333723669</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
@@ -27997,7 +27997,7 @@
         <v>0.3094426038072563</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -28011,14 +28011,14 @@
         <v>40.784041574326501</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>103</v>
       </c>
       <c r="P18" s="41"/>
       <c r="Q18" s="41"/>
     </row>
-    <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="I19" s="88" t="s">
         <v>63</v>
       </c>
@@ -28038,7 +28038,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -28070,7 +28070,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -28108,7 +28108,7 @@
         <v>342.21365467918736</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>5800</v>
       </c>
@@ -28142,7 +28142,7 @@
         <v>1505.5699899567956</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H23" s="71" t="s">
         <v>106</v>
       </c>
@@ -28169,7 +28169,7 @@
         <v>18.163324950452385</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H24" s="71" t="s">
         <v>107</v>
       </c>
@@ -28196,7 +28196,7 @@
         <v>10.016252198105461</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H25" s="71" t="s">
         <v>108</v>
       </c>
@@ -28224,7 +28224,7 @@
         <v>103.41673938682757</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H26" s="70" t="s">
         <v>109</v>
       </c>
@@ -28252,7 +28252,7 @@
         <v>13.800688062315521</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H27" s="70" t="s">
         <v>110</v>
       </c>
@@ -28280,7 +28280,7 @@
         <v>384.41110039157945</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I28" s="38">
         <f>+SUM(I21:I27)</f>
         <v>2000.5305040455908</v>
@@ -28306,13 +28306,13 @@
         <v>2377.5917496252632</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K29" s="38"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K30" s="38"/>
     </row>
-    <row r="37" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H37" s="112" t="s">
         <v>117</v>
       </c>
@@ -28324,7 +28324,7 @@
       <c r="N37" s="112"/>
       <c r="O37" s="112"/>
     </row>
-    <row r="38" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:23" x14ac:dyDescent="0.3">
       <c r="I38" s="74" t="s">
         <v>30</v>
       </c>
@@ -28344,7 +28344,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H39" t="s">
         <v>34</v>
       </c>
@@ -28367,7 +28367,7 @@
         <v>3.9024390243902439E-2</v>
       </c>
     </row>
-    <row r="40" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>36</v>
       </c>
@@ -28390,7 +28390,7 @@
         <v>0.55853658536585371</v>
       </c>
     </row>
-    <row r="41" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>38</v>
       </c>
@@ -28413,7 +28413,7 @@
         <v>5.3658536585365853E-2</v>
       </c>
     </row>
-    <row r="42" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>40</v>
       </c>
@@ -28436,7 +28436,7 @@
         <v>0.17804878048780487</v>
       </c>
     </row>
-    <row r="43" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H43" t="s">
         <v>42</v>
       </c>
@@ -28459,7 +28459,7 @@
         <v>0.13658536585365855</v>
       </c>
     </row>
-    <row r="44" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H44" t="s">
         <v>118</v>
       </c>
@@ -28482,7 +28482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H45" t="s">
         <v>119</v>
       </c>
@@ -28499,7 +28499,7 @@
       <c r="M45" s="62"/>
       <c r="N45" s="76"/>
     </row>
-    <row r="46" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H46" t="s">
         <v>120</v>
       </c>
@@ -28523,7 +28523,7 @@
       </c>
       <c r="R46" s="41"/>
     </row>
-    <row r="47" spans="8:23" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:23" ht="18" x14ac:dyDescent="0.3">
       <c r="H47" t="s">
         <v>121</v>
       </c>
@@ -28554,7 +28554,7 @@
       </c>
       <c r="W47" s="22"/>
     </row>
-    <row r="48" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H48" t="s">
         <v>122</v>
       </c>
@@ -28585,7 +28585,7 @@
       </c>
       <c r="W48" s="22"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H49" s="1" t="s">
         <v>123</v>
       </c>
@@ -28619,7 +28619,7 @@
       </c>
       <c r="W49" s="22"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I50" s="54">
         <v>1</v>
       </c>
@@ -28642,7 +28642,7 @@
       </c>
       <c r="W50" s="22"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R51" s="84"/>
       <c r="S51" s="84"/>
       <c r="T51" s="22"/>
@@ -28652,7 +28652,7 @@
       </c>
       <c r="W51" s="22"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R52" s="84"/>
       <c r="S52" s="84"/>
       <c r="T52" s="22"/>
@@ -28662,7 +28662,7 @@
       </c>
       <c r="W52" s="22"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R53" s="84"/>
       <c r="S53" s="84"/>
       <c r="T53" s="22"/>
@@ -28672,7 +28672,7 @@
       </c>
       <c r="W53" s="22"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R54" s="84"/>
       <c r="S54" s="84"/>
       <c r="T54" s="22"/>
@@ -28682,7 +28682,7 @@
       </c>
       <c r="W54" s="22"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R55" s="84"/>
       <c r="S55" s="84"/>
       <c r="T55" s="22"/>
@@ -28694,22 +28694,22 @@
       <c r="W55" s="84"/>
       <c r="X55" s="38"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W56" s="11"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:24" ht="21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" ht="21" x14ac:dyDescent="0.4">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -28724,7 +28724,7 @@
       <c r="V60" s="113"/>
       <c r="W60" s="113"/>
     </row>
-    <row r="61" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="18" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -28748,7 +28748,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -28776,7 +28776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -28804,7 +28804,7 @@
         <v>0.70411500249785086</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R64" s="20">
         <f t="shared" si="13"/>
         <v>6496.7121983715815</v>
@@ -28828,7 +28828,7 @@
         <v>2.8224919834781794E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="R65" s="20">
         <f t="shared" si="13"/>
         <v>44.660401360000002</v>
@@ -28852,7 +28852,7 @@
         <v>0.2264193930205074</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="67"/>
       <c r="B66" s="67"/>
       <c r="C66" s="67"/>
@@ -28880,7 +28880,7 @@
         <v>2.9005932398423979E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="R67" s="20">
         <f t="shared" si="13"/>
         <v>283.33235609852005</v>
@@ -28904,7 +28904,7 @@
         <v>4.9174002504380532E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="R68" s="20">
         <f t="shared" si="13"/>
         <v>157.75252398843665</v>
@@ -28928,167 +28928,167 @@
         <v>0.99457310605335925</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V69" s="22"/>
       <c r="W69" s="85"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="22"/>
       <c r="B132" s="22"/>
       <c r="C132" s="22"/>
       <c r="D132" s="22"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="22"/>
       <c r="B133" s="22"/>
       <c r="C133" s="22"/>
       <c r="D133" s="22"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="22"/>
       <c r="B134" s="22"/>
       <c r="C134" s="22"/>
       <c r="D134" s="22"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="22"/>
       <c r="B135" s="22"/>
       <c r="C135" s="22"/>
       <c r="D135" s="22"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="22"/>
       <c r="D136" s="22"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="22"/>
       <c r="D137" s="22"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="22"/>
       <c r="D138" s="22"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
       <c r="D139" s="22"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="22"/>
       <c r="B140" s="22"/>
       <c r="C140" s="22"/>
       <c r="D140" s="22"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="22"/>
       <c r="D142" s="22"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="22"/>
       <c r="D143" s="22"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="22"/>
       <c r="D144" s="22"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="22"/>
       <c r="B145" s="22"/>
       <c r="C145" s="22"/>
       <c r="D145" s="22"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="22"/>
       <c r="B146" s="22"/>
       <c r="C146" s="22"/>
       <c r="D146" s="22"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="22"/>
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="22"/>
       <c r="B148" s="22"/>
       <c r="C148" s="22"/>
       <c r="D148" s="22"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="22"/>
       <c r="B149" s="22"/>
       <c r="C149" s="22"/>
       <c r="D149" s="22"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="22"/>
       <c r="B150" s="22"/>
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="22"/>
       <c r="B151" s="22"/>
       <c r="C151" s="22"/>
       <c r="D151" s="22"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="22"/>
       <c r="B152" s="22"/>
       <c r="C152" s="22"/>
       <c r="D152" s="22"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="22"/>
       <c r="B153" s="22"/>
       <c r="C153" s="22"/>
       <c r="D153" s="22"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="22"/>
       <c r="B154" s="22"/>
       <c r="C154" s="22"/>
       <c r="D154" s="22"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="22"/>
       <c r="B155" s="22"/>
       <c r="C155" s="22"/>
       <c r="D155" s="22"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="22"/>
       <c r="B156" s="22"/>
       <c r="C156" s="22"/>
       <c r="D156" s="22"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
       <c r="C157" s="22"/>
       <c r="D157" s="22"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
       <c r="C158" s="22"/>
@@ -29123,15 +29123,15 @@
       <selection activeCell="T14" sqref="T14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.85546875" customWidth="1"/>
-    <col min="15" max="15" width="15.85546875" customWidth="1"/>
+    <col min="8" max="8" width="18.88671875" customWidth="1"/>
+    <col min="15" max="15" width="15.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C4" s="1" t="s">
         <v>75</v>
       </c>
@@ -29139,13 +29139,13 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>78</v>
       </c>
@@ -29169,7 +29169,7 @@
         <v>0.66</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>81</v>
       </c>
@@ -29183,7 +29183,7 @@
         <v>55.539114956987063</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>83</v>
       </c>
@@ -29213,7 +29213,7 @@
       <c r="W8" s="114"/>
       <c r="X8" s="114"/>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>85</v>
       </c>
@@ -29269,7 +29269,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>87</v>
       </c>
@@ -29335,7 +29335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>89</v>
       </c>
@@ -29402,7 +29402,7 @@
         <v>0.38366595333723663</v>
       </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>91</v>
       </c>
@@ -29469,7 +29469,7 @@
         <v>0.3094426038072563</v>
       </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>93</v>
       </c>
@@ -29528,7 +29528,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>95</v>
       </c>
@@ -29591,7 +29591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>97</v>
       </c>
@@ -29659,7 +29659,7 @@
         <v>0.38366595333723669</v>
       </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>99</v>
       </c>
@@ -29725,7 +29725,7 @@
         <v>0.3094426038072563</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>101</v>
       </c>
@@ -29739,14 +29739,14 @@
         <v>40.784041574326501</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
         <v>103</v>
       </c>
       <c r="P18" s="41"/>
       <c r="Q18" s="41"/>
     </row>
-    <row r="19" spans="1:17" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" ht="18" x14ac:dyDescent="0.35">
       <c r="I19" s="88" t="s">
         <v>63</v>
       </c>
@@ -29766,7 +29766,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
         <v>6</v>
       </c>
@@ -29798,7 +29798,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>6</v>
       </c>
@@ -29836,7 +29836,7 @@
         <v>371.21365467918736</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C22">
         <v>5800</v>
       </c>
@@ -29870,7 +29870,7 @@
         <v>1811.5699899567956</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H23" s="71" t="s">
         <v>106</v>
       </c>
@@ -29897,7 +29897,7 @@
         <v>18.163324950452385</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H24" s="71" t="s">
         <v>107</v>
       </c>
@@ -29924,7 +29924,7 @@
         <v>10.016252198105461</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H25" s="71" t="s">
         <v>108</v>
       </c>
@@ -29952,7 +29952,7 @@
         <v>145.41673938682757</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H26" s="70" t="s">
         <v>109</v>
       </c>
@@ -29980,7 +29980,7 @@
         <v>13.800688062315521</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="H27" s="70" t="s">
         <v>110</v>
       </c>
@@ -30008,7 +30008,7 @@
         <v>378.41110039157945</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="I28" s="38">
         <f>+SUM(I21:I27)</f>
         <v>2000.5305040455908</v>
@@ -30026,13 +30026,13 @@
         <v>767</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K29" s="38"/>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="K30" s="38"/>
     </row>
-    <row r="37" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H37" s="112" t="s">
         <v>117</v>
       </c>
@@ -30044,7 +30044,7 @@
       <c r="N37" s="112"/>
       <c r="O37" s="112"/>
     </row>
-    <row r="38" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="8:23" x14ac:dyDescent="0.3">
       <c r="I38" s="74" t="s">
         <v>30</v>
       </c>
@@ -30064,7 +30064,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H39" t="s">
         <v>34</v>
       </c>
@@ -30087,7 +30087,7 @@
         <v>3.9024390243902439E-2</v>
       </c>
     </row>
-    <row r="40" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H40" t="s">
         <v>36</v>
       </c>
@@ -30110,7 +30110,7 @@
         <v>0.55853658536585371</v>
       </c>
     </row>
-    <row r="41" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H41" t="s">
         <v>38</v>
       </c>
@@ -30133,7 +30133,7 @@
         <v>5.3658536585365853E-2</v>
       </c>
     </row>
-    <row r="42" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H42" t="s">
         <v>40</v>
       </c>
@@ -30156,7 +30156,7 @@
         <v>0.17804878048780487</v>
       </c>
     </row>
-    <row r="43" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H43" t="s">
         <v>42</v>
       </c>
@@ -30179,7 +30179,7 @@
         <v>0.13658536585365855</v>
       </c>
     </row>
-    <row r="44" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H44" t="s">
         <v>118</v>
       </c>
@@ -30202,7 +30202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H45" t="s">
         <v>119</v>
       </c>
@@ -30219,7 +30219,7 @@
       <c r="M45" s="62"/>
       <c r="N45" s="76"/>
     </row>
-    <row r="46" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H46" t="s">
         <v>120</v>
       </c>
@@ -30243,7 +30243,7 @@
       </c>
       <c r="R46" s="41"/>
     </row>
-    <row r="47" spans="8:23" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="8:23" ht="18" x14ac:dyDescent="0.3">
       <c r="H47" t="s">
         <v>121</v>
       </c>
@@ -30274,7 +30274,7 @@
       </c>
       <c r="W47" s="22"/>
     </row>
-    <row r="48" spans="8:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="8:23" x14ac:dyDescent="0.3">
       <c r="H48" t="s">
         <v>122</v>
       </c>
@@ -30305,7 +30305,7 @@
       </c>
       <c r="W48" s="22"/>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.3">
       <c r="H49" s="1" t="s">
         <v>123</v>
       </c>
@@ -30339,7 +30339,7 @@
       </c>
       <c r="W49" s="22"/>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.3">
       <c r="I50" s="54">
         <v>1</v>
       </c>
@@ -30362,7 +30362,7 @@
       </c>
       <c r="W50" s="22"/>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R51" s="84"/>
       <c r="S51" s="84"/>
       <c r="T51" s="22"/>
@@ -30372,7 +30372,7 @@
       </c>
       <c r="W51" s="22"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R52" s="84"/>
       <c r="S52" s="84"/>
       <c r="T52" s="22"/>
@@ -30382,7 +30382,7 @@
       </c>
       <c r="W52" s="22"/>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R53" s="84"/>
       <c r="S53" s="84"/>
       <c r="T53" s="22"/>
@@ -30392,7 +30392,7 @@
       </c>
       <c r="W53" s="22"/>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R54" s="84"/>
       <c r="S54" s="84"/>
       <c r="T54" s="22"/>
@@ -30402,7 +30402,7 @@
       </c>
       <c r="W54" s="22"/>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R55" s="84"/>
       <c r="S55" s="84"/>
       <c r="T55" s="22"/>
@@ -30414,22 +30414,22 @@
       <c r="W55" s="84"/>
       <c r="X55" s="38"/>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.3">
       <c r="W56" s="11"/>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A58" s="22"/>
       <c r="B58" s="22"/>
       <c r="C58" s="22"/>
       <c r="D58" s="22"/>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A59" s="22"/>
       <c r="B59" s="22"/>
       <c r="C59" s="22"/>
       <c r="D59" s="22"/>
     </row>
-    <row r="60" spans="1:24" ht="21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:24" ht="21" x14ac:dyDescent="0.4">
       <c r="A60" s="22"/>
       <c r="B60" s="22"/>
       <c r="C60" s="22"/>
@@ -30444,7 +30444,7 @@
       <c r="V60" s="113"/>
       <c r="W60" s="113"/>
     </row>
-    <row r="61" spans="1:24" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" ht="18" x14ac:dyDescent="0.3">
       <c r="A61" s="22"/>
       <c r="B61" s="22"/>
       <c r="C61" s="22"/>
@@ -30468,7 +30468,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A62" s="22"/>
       <c r="B62" s="22"/>
       <c r="C62" s="22"/>
@@ -30496,7 +30496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A63" s="22"/>
       <c r="B63" s="22"/>
       <c r="C63" s="22"/>
@@ -30524,7 +30524,7 @@
         <v>0.70411500249785086</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.3">
       <c r="R64" s="20">
         <f t="shared" si="15"/>
         <v>6496.7121983715815</v>
@@ -30548,7 +30548,7 @@
         <v>2.8224919834781794E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="R65" s="20">
         <f t="shared" si="15"/>
         <v>44.660401360000002</v>
@@ -30572,7 +30572,7 @@
         <v>0.2264193930205074</v>
       </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="67"/>
       <c r="B66" s="67"/>
       <c r="C66" s="67"/>
@@ -30600,7 +30600,7 @@
         <v>2.9005932398423979E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="R67" s="20">
         <f t="shared" si="15"/>
         <v>283.33235609852005</v>
@@ -30624,7 +30624,7 @@
         <v>4.9174002504380532E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="R68" s="20">
         <f t="shared" si="15"/>
         <v>157.75252398843665</v>
@@ -30648,167 +30648,167 @@
         <v>0.99457310605335925</v>
       </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="V69" s="22"/>
       <c r="W69" s="85"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A132" s="22"/>
       <c r="B132" s="22"/>
       <c r="C132" s="22"/>
       <c r="D132" s="22"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A133" s="22"/>
       <c r="B133" s="22"/>
       <c r="C133" s="22"/>
       <c r="D133" s="22"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A134" s="22"/>
       <c r="B134" s="22"/>
       <c r="C134" s="22"/>
       <c r="D134" s="22"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A135" s="22"/>
       <c r="B135" s="22"/>
       <c r="C135" s="22"/>
       <c r="D135" s="22"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A136" s="22"/>
       <c r="B136" s="22"/>
       <c r="C136" s="22"/>
       <c r="D136" s="22"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A137" s="22"/>
       <c r="B137" s="22"/>
       <c r="C137" s="22"/>
       <c r="D137" s="22"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A138" s="22"/>
       <c r="B138" s="22"/>
       <c r="C138" s="22"/>
       <c r="D138" s="22"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A139" s="22"/>
       <c r="B139" s="22"/>
       <c r="C139" s="22"/>
       <c r="D139" s="22"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A140" s="22"/>
       <c r="B140" s="22"/>
       <c r="C140" s="22"/>
       <c r="D140" s="22"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A141" s="22"/>
       <c r="B141" s="22"/>
       <c r="C141" s="22"/>
       <c r="D141" s="22"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A142" s="22"/>
       <c r="B142" s="22"/>
       <c r="C142" s="22"/>
       <c r="D142" s="22"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A143" s="22"/>
       <c r="B143" s="22"/>
       <c r="C143" s="22"/>
       <c r="D143" s="22"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A144" s="22"/>
       <c r="B144" s="22"/>
       <c r="C144" s="22"/>
       <c r="D144" s="22"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="22"/>
       <c r="B145" s="22"/>
       <c r="C145" s="22"/>
       <c r="D145" s="22"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A146" s="22"/>
       <c r="B146" s="22"/>
       <c r="C146" s="22"/>
       <c r="D146" s="22"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="22"/>
       <c r="B147" s="22"/>
       <c r="C147" s="22"/>
       <c r="D147" s="22"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="22"/>
       <c r="B148" s="22"/>
       <c r="C148" s="22"/>
       <c r="D148" s="22"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="22"/>
       <c r="B149" s="22"/>
       <c r="C149" s="22"/>
       <c r="D149" s="22"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A150" s="22"/>
       <c r="B150" s="22"/>
       <c r="C150" s="22"/>
       <c r="D150" s="22"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="22"/>
       <c r="B151" s="22"/>
       <c r="C151" s="22"/>
       <c r="D151" s="22"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="22"/>
       <c r="B152" s="22"/>
       <c r="C152" s="22"/>
       <c r="D152" s="22"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="22"/>
       <c r="B153" s="22"/>
       <c r="C153" s="22"/>
       <c r="D153" s="22"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="22"/>
       <c r="B154" s="22"/>
       <c r="C154" s="22"/>
       <c r="D154" s="22"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="22"/>
       <c r="B155" s="22"/>
       <c r="C155" s="22"/>
       <c r="D155" s="22"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="22"/>
       <c r="B156" s="22"/>
       <c r="C156" s="22"/>
       <c r="D156" s="22"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A157" s="22"/>
       <c r="B157" s="22"/>
       <c r="C157" s="22"/>
       <c r="D157" s="22"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="22"/>
       <c r="B158" s="22"/>
       <c r="C158" s="22"/>
@@ -30842,20 +30842,20 @@
   </sheetPr>
   <dimension ref="C4:V156"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A46" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A46" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="15.85546875" customWidth="1"/>
-    <col min="4" max="5" width="20.85546875" customWidth="1"/>
-    <col min="9" max="10" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" customWidth="1"/>
-    <col min="14" max="14" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="5" width="20.88671875" customWidth="1"/>
+    <col min="9" max="10" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" customWidth="1"/>
+    <col min="14" max="14" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="3:15" ht="21" x14ac:dyDescent="0.4">
       <c r="C4" s="113" t="s">
         <v>65</v>
       </c>
@@ -30865,7 +30865,7 @@
       <c r="G4" s="113"/>
       <c r="H4" s="113"/>
     </row>
-    <row r="6" spans="3:15" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:15" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="49"/>
       <c r="D6" s="49"/>
       <c r="E6" s="49"/>
@@ -30873,12 +30873,12 @@
       <c r="G6" s="49"/>
       <c r="H6" s="49"/>
     </row>
-    <row r="7" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C7" s="50" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="3:15" ht="20.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:15" ht="20.399999999999999" x14ac:dyDescent="0.3">
       <c r="C9" s="51" t="s">
         <v>67</v>
       </c>
@@ -30910,7 +30910,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="10" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>146</v>
       </c>
@@ -30944,7 +30944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>134</v>
       </c>
@@ -30978,7 +30978,7 @@
         <v>209.58659412268182</v>
       </c>
     </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>136</v>
       </c>
@@ -31012,7 +31012,7 @@
         <v>2148.6137392382743</v>
       </c>
     </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>138</v>
       </c>
@@ -31046,7 +31046,7 @@
         <v>11.458306675951276</v>
       </c>
     </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>140</v>
       </c>
@@ -31080,7 +31080,7 @@
         <v>340.93033207312595</v>
       </c>
     </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>142</v>
       </c>
@@ -31114,7 +31114,7 @@
         <v>89.348952841452942</v>
       </c>
     </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C16" s="1" t="s">
         <v>144</v>
       </c>
@@ -31148,7 +31148,7 @@
         <v>0.28393563225172275</v>
       </c>
     </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="19"/>
@@ -31165,7 +31165,7 @@
       </c>
       <c r="M17" s="16"/>
     </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:15" x14ac:dyDescent="0.3">
       <c r="F19" s="38">
         <f>+SUM(F10:F16)</f>
         <v>10443.59672371719</v>
@@ -31187,7 +31187,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:15" x14ac:dyDescent="0.3">
       <c r="K20" t="s">
         <v>150</v>
       </c>
@@ -31206,7 +31206,7 @@
         <v>0.33165935072965186</v>
       </c>
     </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C21" s="50" t="s">
         <v>153</v>
       </c>
@@ -31218,7 +31218,7 @@
         <v>3574.552343587181</v>
       </c>
     </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C23" s="51" t="s">
         <v>67</v>
       </c>
@@ -31238,7 +31238,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C24" s="19" t="str" cm="1">
         <f t="array" ref="C24:C30">+C10:C16</f>
         <v>MIN-CAM1</v>
@@ -31263,7 +31263,7 @@
       </c>
       <c r="M24" s="16"/>
     </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C25" s="19" t="str">
         <v>MIN-CAM2</v>
       </c>
@@ -31285,7 +31285,7 @@
       </c>
       <c r="M25" s="16"/>
     </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C26" s="19" t="str">
         <v>MIN-CAM3</v>
       </c>
@@ -31307,7 +31307,7 @@
       </c>
       <c r="M26" s="16"/>
     </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C27" s="19" t="str">
         <v>MIN-CAM4</v>
       </c>
@@ -31329,7 +31329,7 @@
       </c>
       <c r="M27" s="16"/>
     </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C28" s="19" t="str">
         <v>MIN-CAM5</v>
       </c>
@@ -31351,7 +31351,7 @@
       </c>
       <c r="M28" s="16"/>
     </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C29" s="19" t="str">
         <v>MIN-CAM6</v>
       </c>
@@ -31373,7 +31373,7 @@
       </c>
       <c r="M29" s="16"/>
     </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:15" x14ac:dyDescent="0.3">
       <c r="C30" s="19" t="str">
         <v>MIN-CAM7</v>
       </c>
@@ -31395,18 +31395,18 @@
       </c>
       <c r="M30" s="16"/>
     </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:15" x14ac:dyDescent="0.3">
       <c r="F32" s="20">
         <f>+SUM(F24:F30)</f>
         <v>3574.5523435871814</v>
       </c>
     </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D35" s="107" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="36" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C36" s="51" t="s">
         <v>67</v>
       </c>
@@ -31430,7 +31430,7 @@
       </c>
       <c r="J36" s="108"/>
     </row>
-    <row r="37" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C37" s="19" t="str">
         <f t="shared" ref="C37:C43" si="2">+D48</f>
         <v>MIN-P2-CAM1</v>
@@ -31451,7 +31451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C38" s="19" t="str">
         <f t="shared" si="2"/>
         <v>MIN-P2-CAM2</v>
@@ -31472,7 +31472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C39" s="19" t="str">
         <f t="shared" si="2"/>
         <v>MIN-P2-CAM3</v>
@@ -31493,7 +31493,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C40" s="19" t="str">
         <f t="shared" si="2"/>
         <v>MIN-P2-CAM4</v>
@@ -31514,7 +31514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C41" s="19" t="str">
         <f t="shared" si="2"/>
         <v>MIN-P2-CAM5</v>
@@ -31535,7 +31535,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C42" s="19" t="str">
         <f t="shared" si="2"/>
         <v>MIN-P2-CAM6</v>
@@ -31556,7 +31556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C43" s="19" t="str">
         <f t="shared" si="2"/>
         <v>MIN-P2-CAM7</v>
@@ -31577,7 +31577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D46" s="102" t="s">
         <v>155</v>
       </c>
@@ -31585,7 +31585,7 @@
       <c r="F46" s="103"/>
       <c r="G46" s="103"/>
     </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C47" s="104" t="s">
         <v>156</v>
       </c>
@@ -31602,7 +31602,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="48" spans="3:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C48" t="s">
         <v>167</v>
       </c>
@@ -31619,7 +31619,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D49" t="s">
         <v>160</v>
       </c>
@@ -31633,7 +31633,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D50" t="s">
         <v>162</v>
       </c>
@@ -31647,7 +31647,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>163</v>
       </c>
@@ -31661,7 +31661,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D52" t="s">
         <v>164</v>
       </c>
@@ -31675,7 +31675,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D53" t="s">
         <v>165</v>
       </c>
@@ -31689,7 +31689,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D54" t="s">
         <v>166</v>
       </c>
@@ -31703,10 +31703,10 @@
         <v>175</v>
       </c>
     </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D57" s="107"/>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C58" s="51" t="s">
         <v>67</v>
       </c>
@@ -31726,7 +31726,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C59" s="19" t="str">
         <f>+D48</f>
         <v>MIN-P2-CAM1</v>
@@ -31780,7 +31780,7 @@
         <v>2050</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C60" s="19"/>
       <c r="D60" s="19" t="s">
         <v>176</v>
@@ -31814,7 +31814,7 @@
         <v>11.0869175104107</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C61" s="19"/>
       <c r="D61" s="19" t="s">
         <v>176</v>
@@ -31859,7 +31859,7 @@
         <v>6.6898601086639404</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C62" s="19"/>
       <c r="D62" s="19" t="s">
         <v>176</v>
@@ -31902,7 +31902,7 @@
         <v>31.521496431540299</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C63" s="19"/>
       <c r="D63" s="19" t="s">
         <v>176</v>
@@ -31938,7 +31938,7 @@
         <v>16.090057681167</v>
       </c>
     </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C64" s="19"/>
       <c r="D64" s="19" t="s">
         <v>176</v>
@@ -31975,7 +31975,7 @@
         <v>79.613595166371994</v>
       </c>
     </row>
-    <row r="65" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C65" s="19"/>
       <c r="D65" s="19" t="s">
         <v>176</v>
@@ -31999,7 +31999,7 @@
         <v>3.1983813903590201</v>
       </c>
     </row>
-    <row r="66" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C66" s="19"/>
       <c r="D66" s="19" t="s">
         <v>176</v>
@@ -32027,7 +32027,7 @@
         <v>3.1983813903590201</v>
       </c>
     </row>
-    <row r="67" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C67" s="19"/>
       <c r="D67" s="19" t="s">
         <v>176</v>
@@ -32063,7 +32063,7 @@
         <v>3.3234549323190898</v>
       </c>
     </row>
-    <row r="68" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C68" s="19"/>
       <c r="D68" s="19" t="s">
         <v>176</v>
@@ -32097,7 +32097,7 @@
         <v>14.4560646242053</v>
       </c>
     </row>
-    <row r="69" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C69" s="19"/>
       <c r="D69" s="19" t="s">
         <v>176</v>
@@ -32133,7 +32133,7 @@
         <v>0.376383411895933</v>
       </c>
     </row>
-    <row r="70" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C70" s="19"/>
       <c r="D70" s="19" t="s">
         <v>176</v>
@@ -32167,7 +32167,7 @@
         <v>5.0474602565398401</v>
       </c>
     </row>
-    <row r="71" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C71" s="19"/>
       <c r="D71" s="19" t="s">
         <v>176</v>
@@ -32209,7 +32209,7 @@
         <v>0.19724675268257499</v>
       </c>
     </row>
-    <row r="72" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C72" s="19"/>
       <c r="D72" s="19" t="s">
         <v>176</v>
@@ -32252,7 +32252,7 @@
         <v>6.6283273862720602</v>
       </c>
     </row>
-    <row r="73" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:22" x14ac:dyDescent="0.3">
       <c r="C73" s="19" t="str">
         <f>+D49</f>
         <v>MIN-P2-CAM2</v>
@@ -32267,7 +32267,7 @@
         <v>363.68563536317856</v>
       </c>
     </row>
-    <row r="74" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D74" s="19" t="s">
         <v>176</v>
       </c>
@@ -32282,7 +32282,7 @@
         <v>501.70516888455614</v>
       </c>
     </row>
-    <row r="75" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D75" s="19" t="s">
         <v>176</v>
       </c>
@@ -32293,7 +32293,7 @@
         <v>291.71333965512213</v>
       </c>
     </row>
-    <row r="76" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D76" s="19" t="s">
         <v>176</v>
       </c>
@@ -32304,7 +32304,7 @@
         <v>219.06541620476196</v>
       </c>
     </row>
-    <row r="77" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D77" s="19" t="s">
         <v>176</v>
       </c>
@@ -32315,7 +32315,7 @@
         <v>126.28578711913453</v>
       </c>
     </row>
-    <row r="78" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D78" s="19" t="s">
         <v>176</v>
       </c>
@@ -32326,7 +32326,7 @@
         <v>93.858549318283977</v>
       </c>
     </row>
-    <row r="79" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D79" s="19" t="s">
         <v>176</v>
       </c>
@@ -32337,7 +32337,7 @@
         <v>67.926190092891318</v>
       </c>
     </row>
-    <row r="80" spans="3:22" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:22" x14ac:dyDescent="0.3">
       <c r="D80" s="19" t="s">
         <v>176</v>
       </c>
@@ -32348,7 +32348,7 @@
         <v>51.633133760529908</v>
       </c>
     </row>
-    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D81" s="19" t="s">
         <v>176</v>
       </c>
@@ -32359,7 +32359,7 @@
         <v>39.112638374469476</v>
       </c>
     </row>
-    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D82" s="19" t="s">
         <v>176</v>
       </c>
@@ -32370,7 +32370,7 @@
         <v>23.3968962245543</v>
       </c>
     </row>
-    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D83" s="19" t="s">
         <v>176</v>
       </c>
@@ -32381,7 +32381,7 @@
         <v>10.786632390437573</v>
       </c>
     </row>
-    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D84" s="19" t="s">
         <v>176</v>
       </c>
@@ -32392,7 +32392,7 @@
         <v>9.0936013935059616</v>
       </c>
     </row>
-    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D85" s="19" t="s">
         <v>176</v>
       </c>
@@ -32403,7 +32403,7 @@
         <v>8.1321048795691553</v>
       </c>
     </row>
-    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D86" s="19" t="s">
         <v>176</v>
       </c>
@@ -32414,7 +32414,7 @@
         <v>6.6898601086639449</v>
       </c>
     </row>
-    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C87" s="19" t="str">
         <f>+D50</f>
         <v>MIN-P2-CAM3</v>
@@ -32429,7 +32429,7 @@
         <v>726.70451084468357</v>
       </c>
     </row>
-    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D88" s="19" t="s">
         <v>176</v>
       </c>
@@ -32440,7 +32440,7 @@
         <v>687.86225103060212</v>
       </c>
     </row>
-    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D89" s="19" t="s">
         <v>176</v>
       </c>
@@ -32451,7 +32451,7 @@
         <v>385.85872204465466</v>
       </c>
     </row>
-    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D90" s="19" t="s">
         <v>176</v>
       </c>
@@ -32462,7 +32462,7 @@
         <v>409.06901747594299</v>
       </c>
     </row>
-    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D91" s="19" t="s">
         <v>176</v>
       </c>
@@ -32473,7 +32473,7 @@
         <v>369.35783750049205</v>
       </c>
     </row>
-    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D92" s="19" t="s">
         <v>176</v>
       </c>
@@ -32484,7 +32484,7 @@
         <v>309.7910675373156</v>
       </c>
     </row>
-    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D93" s="19" t="s">
         <v>176</v>
       </c>
@@ -32495,7 +32495,7 @@
         <v>196.2800040437545</v>
       </c>
     </row>
-    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D94" s="19" t="s">
         <v>176</v>
       </c>
@@ -32506,7 +32506,7 @@
         <v>151.73365907601499</v>
       </c>
     </row>
-    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D95" s="19" t="s">
         <v>176</v>
       </c>
@@ -32517,7 +32517,7 @@
         <v>35.113596160592415</v>
       </c>
     </row>
-    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D96" s="19" t="s">
         <v>176</v>
       </c>
@@ -32528,7 +32528,7 @@
         <v>85.07145902842241</v>
       </c>
     </row>
-    <row r="97" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D97" s="19" t="s">
         <v>176</v>
       </c>
@@ -32539,7 +32539,7 @@
         <v>76.155967420534168</v>
       </c>
     </row>
-    <row r="98" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D98" s="19" t="s">
         <v>176</v>
       </c>
@@ -32550,7 +32550,7 @@
         <v>62.622403033114466</v>
       </c>
     </row>
-    <row r="99" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D99" s="19" t="s">
         <v>176</v>
       </c>
@@ -32561,7 +32561,7 @@
         <v>58.552871897120902</v>
       </c>
     </row>
-    <row r="100" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D100" s="19" t="s">
         <v>176</v>
       </c>
@@ -32572,7 +32572,7 @@
         <v>47.786379701308284</v>
       </c>
     </row>
-    <row r="101" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C101" s="19" t="str">
         <f>+D51</f>
         <v>MIN-P2-CAM4</v>
@@ -32587,7 +32587,7 @@
         <v>5.6352908998762912</v>
       </c>
     </row>
-    <row r="102" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D102" s="19" t="s">
         <v>176</v>
       </c>
@@ -32598,7 +32598,7 @@
         <v>5.3251450871105153</v>
       </c>
     </row>
-    <row r="103" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D103" s="19" t="s">
         <v>176</v>
       </c>
@@ -32609,7 +32609,7 @@
         <v>4.6229281525464918</v>
       </c>
     </row>
-    <row r="104" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D104" s="19" t="s">
         <v>176</v>
       </c>
@@ -32620,7 +32620,7 @@
         <v>4.1547835295038089</v>
       </c>
     </row>
-    <row r="105" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D105" s="19" t="s">
         <v>176</v>
       </c>
@@ -32631,7 +32631,7 @@
         <v>3.4993810572440531</v>
       </c>
     </row>
-    <row r="106" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D106" s="19" t="s">
         <v>176</v>
       </c>
@@ -32642,7 +32642,7 @@
         <v>2.5162773488544192</v>
       </c>
     </row>
-    <row r="107" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D107" s="19" t="s">
         <v>176</v>
       </c>
@@ -32653,7 +32653,7 @@
         <v>2.0247254946596036</v>
       </c>
     </row>
-    <row r="108" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D108" s="19" t="s">
         <v>176</v>
       </c>
@@ -32664,7 +32664,7 @@
         <v>1.6970242585297266</v>
       </c>
     </row>
-    <row r="109" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D109" s="19" t="s">
         <v>176</v>
       </c>
@@ -32675,7 +32675,7 @@
         <v>1.4629519470083856</v>
       </c>
     </row>
-    <row r="110" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D110" s="19" t="s">
         <v>176</v>
       </c>
@@ -32686,7 +32686,7 @@
         <v>1.1118434797263739</v>
       </c>
     </row>
-    <row r="111" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D111" s="19" t="s">
         <v>176</v>
       </c>
@@ -32697,7 +32697,7 @@
         <v>0.99480732396570282</v>
       </c>
     </row>
-    <row r="112" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D112" s="19" t="s">
         <v>176</v>
       </c>
@@ -32708,7 +32708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D113" s="19" t="s">
         <v>176</v>
       </c>
@@ -32719,7 +32719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D114" s="19" t="s">
         <v>176</v>
       </c>
@@ -32730,7 +32730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C115" s="19" t="str">
         <f>+D52</f>
         <v>MIN-P2-CAM5</v>
@@ -32745,7 +32745,7 @@
         <v>165.44478873779963</v>
       </c>
     </row>
-    <row r="116" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D116" s="19" t="s">
         <v>176</v>
       </c>
@@ -32756,7 +32756,7 @@
         <v>153.89107121101256</v>
       </c>
     </row>
-    <row r="117" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D117" s="19" t="s">
         <v>176</v>
       </c>
@@ -32767,7 +32767,7 @@
         <v>98.967477778380101</v>
       </c>
     </row>
-    <row r="118" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D118" s="19" t="s">
         <v>176</v>
       </c>
@@ -32778,7 +32778,7 @@
         <v>91.230677358831571</v>
       </c>
     </row>
-    <row r="119" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D119" s="19" t="s">
         <v>176</v>
       </c>
@@ -32789,7 +32789,7 @@
         <v>73.193552767530946</v>
       </c>
     </row>
-    <row r="120" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D120" s="19" t="s">
         <v>176</v>
       </c>
@@ -32800,7 +32800,7 @@
         <v>46.137865880580037</v>
       </c>
     </row>
-    <row r="121" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D121" s="19" t="s">
         <v>176</v>
       </c>
@@ -32811,7 +32811,7 @@
         <v>34.93812928869707</v>
       </c>
     </row>
-    <row r="122" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D122" s="19" t="s">
         <v>176</v>
       </c>
@@ -32822,7 +32822,7 @@
         <v>27.471638227441758</v>
       </c>
     </row>
-    <row r="123" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D123" s="19" t="s">
         <v>176</v>
       </c>
@@ -32833,7 +32833,7 @@
         <v>22.774089751023496</v>
       </c>
     </row>
-    <row r="124" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D124" s="19" t="s">
         <v>176</v>
       </c>
@@ -32844,7 +32844,7 @@
         <v>15.727767036396102</v>
       </c>
     </row>
-    <row r="125" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D125" s="19" t="s">
         <v>176</v>
       </c>
@@ -32855,7 +32855,7 @@
         <v>9.6596165622714754</v>
       </c>
     </row>
-    <row r="126" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D126" s="19" t="s">
         <v>176</v>
       </c>
@@ -32866,7 +32866,7 @@
         <v>8.2794492877500225</v>
       </c>
     </row>
-    <row r="127" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D127" s="19" t="s">
         <v>176</v>
       </c>
@@ -32877,7 +32877,7 @@
         <v>7.0735333286609636</v>
       </c>
     </row>
-    <row r="128" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D128" s="19" t="s">
         <v>176</v>
       </c>
@@ -32888,7 +32888,7 @@
         <v>5.2903275793547166</v>
       </c>
     </row>
-    <row r="129" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C129" s="19" t="str">
         <f>+D53</f>
         <v>MIN-P2-CAM6</v>
@@ -32903,7 +32903,7 @@
         <v>29.863178560112861</v>
       </c>
     </row>
-    <row r="130" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D130" s="19" t="s">
         <v>176</v>
       </c>
@@ -32914,7 +32914,7 @@
         <v>27.835107673690871</v>
       </c>
     </row>
-    <row r="131" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D131" s="19" t="s">
         <v>176</v>
       </c>
@@ -32925,7 +32925,7 @@
         <v>17.559909024325922</v>
       </c>
     </row>
-    <row r="132" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D132" s="19" t="s">
         <v>176</v>
       </c>
@@ -32936,7 +32936,7 @@
         <v>20.274712206938659</v>
       </c>
     </row>
-    <row r="133" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D133" s="19" t="s">
         <v>176</v>
       </c>
@@ -32947,7 +32947,7 @@
         <v>12.813096418110867</v>
       </c>
     </row>
-    <row r="134" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D134" s="19" t="s">
         <v>176</v>
       </c>
@@ -32958,7 +32958,7 @@
         <v>12.747595139993381</v>
       </c>
     </row>
-    <row r="135" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D135" s="19" t="s">
         <v>176</v>
       </c>
@@ -32969,7 +32969,7 @@
         <v>8.1699853499332526</v>
       </c>
     </row>
-    <row r="136" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D136" s="19" t="s">
         <v>176</v>
       </c>
@@ -32980,7 +32980,7 @@
         <v>8.8839477570677019</v>
       </c>
     </row>
-    <row r="137" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D137" s="19" t="s">
         <v>176</v>
       </c>
@@ -32991,7 +32991,7 @@
         <v>7.6545148810463139</v>
       </c>
     </row>
-    <row r="138" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D138" s="19" t="s">
         <v>176</v>
       </c>
@@ -33002,7 +33002,7 @@
         <v>5.5289075934361867</v>
       </c>
     </row>
-    <row r="139" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D139" s="19" t="s">
         <v>176</v>
       </c>
@@ -33013,7 +33013,7 @@
         <v>4.8075273037748882</v>
       </c>
     </row>
-    <row r="140" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D140" s="19" t="s">
         <v>176</v>
       </c>
@@ -33024,7 +33024,7 @@
         <v>4.3266071106673554</v>
       </c>
     </row>
-    <row r="141" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D141" s="19" t="s">
         <v>176</v>
       </c>
@@ -33035,7 +33035,7 @@
         <v>3.9981896052775268</v>
       </c>
     </row>
-    <row r="142" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D142" s="19" t="s">
         <v>176</v>
       </c>
@@ -33046,7 +33046,7 @@
         <v>3.5055633471927838</v>
       </c>
     </row>
-    <row r="143" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C143" s="19" t="str">
         <f>+D54</f>
         <v>MIN-P2-CAM7</v>
@@ -33061,7 +33061,7 @@
         <v>13.730938960633223</v>
       </c>
     </row>
-    <row r="144" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:6" x14ac:dyDescent="0.3">
       <c r="D144" s="19" t="s">
         <v>176</v>
       </c>
@@ -33072,7 +33072,7 @@
         <v>13.481821376850158</v>
       </c>
     </row>
-    <row r="145" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D145" s="19" t="s">
         <v>176</v>
       </c>
@@ -33083,7 +33083,7 @@
         <v>13.508917511179082</v>
       </c>
     </row>
-    <row r="146" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D146" s="19" t="s">
         <v>176</v>
       </c>
@@ -33094,7 +33094,7 @@
         <v>11.452716398983046</v>
       </c>
     </row>
-    <row r="147" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D147" s="19" t="s">
         <v>176</v>
       </c>
@@ -33105,7 +33105,7 @@
         <v>9.7608949656530672</v>
       </c>
     </row>
-    <row r="148" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D148" s="19" t="s">
         <v>176</v>
       </c>
@@ -33116,7 +33116,7 @@
         <v>7.6571590031467025</v>
       </c>
     </row>
-    <row r="149" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D149" s="19" t="s">
         <v>176</v>
       </c>
@@ -33127,7 +33127,7 @@
         <v>6.1813413727745186</v>
       </c>
     </row>
-    <row r="150" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D150" s="19" t="s">
         <v>176</v>
       </c>
@@ -33138,7 +33138,7 @@
         <v>5.2908833074602128</v>
       </c>
     </row>
-    <row r="151" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D151" s="19" t="s">
         <v>176</v>
       </c>
@@ -33149,7 +33149,7 @@
         <v>4.5396783970548498</v>
       </c>
     </row>
-    <row r="152" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D152" s="19" t="s">
         <v>176</v>
       </c>
@@ -33160,7 +33160,7 @@
         <v>3.6489860397841127</v>
       </c>
     </row>
-    <row r="153" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D153" s="19" t="s">
         <v>176</v>
       </c>
@@ -33171,7 +33171,7 @@
         <v>0.66755939822291932</v>
       </c>
     </row>
-    <row r="154" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D154" s="19" t="s">
         <v>176</v>
       </c>
@@ -33182,7 +33182,7 @@
         <v>0.56675340398689622</v>
       </c>
     </row>
-    <row r="155" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D155" s="19" t="s">
         <v>176</v>
       </c>
@@ -33193,7 +33193,7 @@
         <v>0.48255766260835375</v>
       </c>
     </row>
-    <row r="156" spans="4:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:6" x14ac:dyDescent="0.3">
       <c r="D156" s="19" t="s">
         <v>176</v>
       </c>
